--- a/excel_templates/plantilla_original.xlsx
+++ b/excel_templates/plantilla_original.xlsx
@@ -536,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -687,19 +687,6 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
       <left style="none"/>
       <right style="none"/>
       <top style="thin">
@@ -730,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="220">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1072,47 +1059,18 @@
     <xf fontId="10" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="7" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="6" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="6" fillId="7" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="6" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="6" fillId="8" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="6" fillId="8" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="10" fillId="8" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="6" fillId="8" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="10" fillId="5" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="16" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="16" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="16" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf fontId="8" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="6" fillId="8" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="16" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="16" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1172,7 +1130,7 @@
     <xf fontId="18" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="18" fillId="5" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1198,7 +1156,7 @@
     <xf fontId="18" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="8" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1252,7 +1210,7 @@
     <xf fontId="8" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="8" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1965,7 +1923,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C17" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3303,8 +3261,8 @@
       <c r="N58" s="64"/>
     </row>
     <row r="59">
-      <c r="A59" s="127"/>
-      <c r="B59" s="128"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="49"/>
       <c r="D59" s="49"/>
       <c r="E59" s="50" t="s">
@@ -3325,8 +3283,8 @@
       <c r="N59" s="114"/>
     </row>
     <row r="60">
-      <c r="A60" s="127"/>
-      <c r="B60" s="128"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="114"/>
       <c r="D60" s="114"/>
       <c r="E60" s="114"/>
@@ -3343,8 +3301,8 @@
       <c r="N60" s="114"/>
     </row>
     <row r="61">
-      <c r="A61" s="127"/>
-      <c r="B61" s="128"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="67"/>
       <c r="C61" s="114"/>
       <c r="D61" s="114"/>
       <c r="E61" s="114"/>
@@ -3354,13 +3312,13 @@
       <c r="I61" s="111"/>
       <c r="J61" s="111"/>
       <c r="K61" s="114"/>
-      <c r="L61" s="129"/>
+      <c r="L61" s="118"/>
       <c r="M61" s="114"/>
       <c r="N61" s="114"/>
     </row>
     <row r="62" ht="25.5">
-      <c r="A62" s="127"/>
-      <c r="B62" s="128"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="67"/>
       <c r="C62" s="114"/>
       <c r="D62" s="114"/>
       <c r="E62" s="114"/>
@@ -3379,8 +3337,8 @@
       <c r="N62" s="114"/>
     </row>
     <row r="63">
-      <c r="A63" s="127"/>
-      <c r="B63" s="128"/>
+      <c r="A63" s="66"/>
+      <c r="B63" s="67"/>
       <c r="C63" s="111"/>
       <c r="D63" s="111"/>
       <c r="E63" s="111"/>
@@ -3395,8 +3353,8 @@
       <c r="N63" s="114"/>
     </row>
     <row r="64" ht="25.5">
-      <c r="A64" s="127"/>
-      <c r="B64" s="128"/>
+      <c r="A64" s="66"/>
+      <c r="B64" s="67"/>
       <c r="C64" s="76"/>
       <c r="D64" s="77"/>
       <c r="E64" s="50" t="s">
@@ -3417,8 +3375,8 @@
       <c r="N64" s="114"/>
     </row>
     <row r="65">
-      <c r="A65" s="130"/>
-      <c r="B65" s="131"/>
+      <c r="A65" s="79"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="111"/>
       <c r="D65" s="111"/>
       <c r="E65" s="111"/>
@@ -3543,8 +3501,8 @@
       <c r="N69" s="100"/>
     </row>
     <row r="70">
-      <c r="A70" s="132"/>
-      <c r="B70" s="128"/>
+      <c r="A70" s="101"/>
+      <c r="B70" s="67"/>
       <c r="C70" s="111"/>
       <c r="D70" s="111"/>
       <c r="E70" s="55"/>
@@ -3554,13 +3512,13 @@
       <c r="I70" s="111"/>
       <c r="J70" s="111"/>
       <c r="K70" s="111"/>
-      <c r="L70" s="131"/>
+      <c r="L70" s="48"/>
       <c r="M70" s="102"/>
       <c r="N70" s="111"/>
     </row>
     <row r="71">
-      <c r="A71" s="132"/>
-      <c r="B71" s="128"/>
+      <c r="A71" s="101"/>
+      <c r="B71" s="67"/>
       <c r="C71" s="95" t="s">
         <v>64</v>
       </c>
@@ -3583,8 +3541,8 @@
       <c r="N71" s="100"/>
     </row>
     <row r="72">
-      <c r="A72" s="132"/>
-      <c r="B72" s="128"/>
+      <c r="A72" s="101"/>
+      <c r="B72" s="67"/>
       <c r="C72" s="111"/>
       <c r="D72" s="111"/>
       <c r="E72" s="55"/>
@@ -3594,13 +3552,13 @@
       <c r="I72" s="111"/>
       <c r="J72" s="111"/>
       <c r="K72" s="111"/>
-      <c r="L72" s="131"/>
+      <c r="L72" s="48"/>
       <c r="M72" s="102"/>
       <c r="N72" s="111"/>
     </row>
     <row r="73">
-      <c r="A73" s="132"/>
-      <c r="B73" s="128"/>
+      <c r="A73" s="101"/>
+      <c r="B73" s="67"/>
       <c r="C73" s="95" t="s">
         <v>64</v>
       </c>
@@ -3623,8 +3581,8 @@
       <c r="N73" s="100"/>
     </row>
     <row r="74">
-      <c r="A74" s="132"/>
-      <c r="B74" s="128"/>
+      <c r="A74" s="101"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="111"/>
       <c r="D74" s="111"/>
       <c r="E74" s="55"/>
@@ -3634,13 +3592,13 @@
       <c r="I74" s="111"/>
       <c r="J74" s="111"/>
       <c r="K74" s="111"/>
-      <c r="L74" s="131"/>
+      <c r="L74" s="48"/>
       <c r="M74" s="102"/>
       <c r="N74" s="111"/>
     </row>
     <row r="75">
-      <c r="A75" s="132"/>
-      <c r="B75" s="128"/>
+      <c r="A75" s="101"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="95" t="s">
         <v>64</v>
       </c>
@@ -3663,8 +3621,8 @@
       <c r="N75" s="100"/>
     </row>
     <row r="76">
-      <c r="A76" s="133"/>
-      <c r="B76" s="131"/>
+      <c r="A76" s="108"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="111"/>
       <c r="D76" s="111"/>
       <c r="E76" s="55"/>
@@ -3802,8 +3760,8 @@
       <c r="N81" s="64"/>
     </row>
     <row r="82">
-      <c r="A82" s="127"/>
-      <c r="B82" s="128"/>
+      <c r="A82" s="66"/>
+      <c r="B82" s="67"/>
       <c r="C82" s="49"/>
       <c r="D82" s="49"/>
       <c r="E82" s="50" t="s">
@@ -3824,8 +3782,8 @@
       <c r="N82" s="114"/>
     </row>
     <row r="83">
-      <c r="A83" s="127"/>
-      <c r="B83" s="128"/>
+      <c r="A83" s="66"/>
+      <c r="B83" s="67"/>
       <c r="C83" s="114"/>
       <c r="D83" s="114"/>
       <c r="E83" s="114"/>
@@ -3842,8 +3800,8 @@
       <c r="N83" s="114"/>
     </row>
     <row r="84">
-      <c r="A84" s="127"/>
-      <c r="B84" s="128"/>
+      <c r="A84" s="66"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="114"/>
       <c r="D84" s="114"/>
       <c r="E84" s="114"/>
@@ -3853,13 +3811,13 @@
       <c r="I84" s="111"/>
       <c r="J84" s="111"/>
       <c r="K84" s="114"/>
-      <c r="L84" s="129"/>
+      <c r="L84" s="118"/>
       <c r="M84" s="114"/>
       <c r="N84" s="114"/>
     </row>
     <row r="85">
-      <c r="A85" s="127"/>
-      <c r="B85" s="128"/>
+      <c r="A85" s="66"/>
+      <c r="B85" s="67"/>
       <c r="C85" s="114"/>
       <c r="D85" s="114"/>
       <c r="E85" s="114"/>
@@ -3878,8 +3836,8 @@
       <c r="N85" s="114"/>
     </row>
     <row r="86">
-      <c r="A86" s="127"/>
-      <c r="B86" s="128"/>
+      <c r="A86" s="66"/>
+      <c r="B86" s="67"/>
       <c r="C86" s="111"/>
       <c r="D86" s="111"/>
       <c r="E86" s="111"/>
@@ -3894,8 +3852,8 @@
       <c r="N86" s="114"/>
     </row>
     <row r="87">
-      <c r="A87" s="127"/>
-      <c r="B87" s="128"/>
+      <c r="A87" s="66"/>
+      <c r="B87" s="67"/>
       <c r="C87" s="76"/>
       <c r="D87" s="77"/>
       <c r="E87" s="50" t="s">
@@ -3916,8 +3874,8 @@
       <c r="N87" s="114"/>
     </row>
     <row r="88">
-      <c r="A88" s="130"/>
-      <c r="B88" s="131"/>
+      <c r="A88" s="79"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="111"/>
       <c r="D88" s="111"/>
       <c r="E88" s="111"/>
@@ -4042,8 +4000,8 @@
       <c r="N92" s="100"/>
     </row>
     <row r="93">
-      <c r="A93" s="132"/>
-      <c r="B93" s="128"/>
+      <c r="A93" s="101"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="111"/>
       <c r="D93" s="111"/>
       <c r="E93" s="55"/>
@@ -4053,13 +4011,13 @@
       <c r="I93" s="111"/>
       <c r="J93" s="111"/>
       <c r="K93" s="111"/>
-      <c r="L93" s="131"/>
+      <c r="L93" s="48"/>
       <c r="M93" s="102"/>
       <c r="N93" s="111"/>
     </row>
     <row r="94">
-      <c r="A94" s="132"/>
-      <c r="B94" s="128"/>
+      <c r="A94" s="101"/>
+      <c r="B94" s="67"/>
       <c r="C94" s="95" t="s">
         <v>64</v>
       </c>
@@ -4082,8 +4040,8 @@
       <c r="N94" s="100"/>
     </row>
     <row r="95">
-      <c r="A95" s="132"/>
-      <c r="B95" s="128"/>
+      <c r="A95" s="101"/>
+      <c r="B95" s="67"/>
       <c r="C95" s="111"/>
       <c r="D95" s="111"/>
       <c r="E95" s="55"/>
@@ -4093,13 +4051,13 @@
       <c r="I95" s="111"/>
       <c r="J95" s="111"/>
       <c r="K95" s="111"/>
-      <c r="L95" s="131"/>
+      <c r="L95" s="48"/>
       <c r="M95" s="102"/>
       <c r="N95" s="111"/>
     </row>
     <row r="96">
-      <c r="A96" s="132"/>
-      <c r="B96" s="128"/>
+      <c r="A96" s="101"/>
+      <c r="B96" s="67"/>
       <c r="C96" s="95" t="s">
         <v>64</v>
       </c>
@@ -4122,8 +4080,8 @@
       <c r="N96" s="100"/>
     </row>
     <row r="97">
-      <c r="A97" s="132"/>
-      <c r="B97" s="128"/>
+      <c r="A97" s="101"/>
+      <c r="B97" s="67"/>
       <c r="C97" s="111"/>
       <c r="D97" s="111"/>
       <c r="E97" s="55"/>
@@ -4133,13 +4091,13 @@
       <c r="I97" s="111"/>
       <c r="J97" s="111"/>
       <c r="K97" s="111"/>
-      <c r="L97" s="131"/>
+      <c r="L97" s="48"/>
       <c r="M97" s="102"/>
       <c r="N97" s="111"/>
     </row>
     <row r="98">
-      <c r="A98" s="132"/>
-      <c r="B98" s="128"/>
+      <c r="A98" s="101"/>
+      <c r="B98" s="67"/>
       <c r="C98" s="95" t="s">
         <v>64</v>
       </c>
@@ -4162,8 +4120,8 @@
       <c r="N98" s="100"/>
     </row>
     <row r="99">
-      <c r="A99" s="133"/>
-      <c r="B99" s="131"/>
+      <c r="A99" s="108"/>
+      <c r="B99" s="48"/>
       <c r="C99" s="111"/>
       <c r="D99" s="111"/>
       <c r="E99" s="55"/>
@@ -4301,8 +4259,8 @@
       <c r="N104" s="64"/>
     </row>
     <row r="105">
-      <c r="A105" s="127"/>
-      <c r="B105" s="128"/>
+      <c r="A105" s="66"/>
+      <c r="B105" s="67"/>
       <c r="C105" s="49"/>
       <c r="D105" s="49"/>
       <c r="E105" s="50" t="s">
@@ -4323,8 +4281,8 @@
       <c r="N105" s="114"/>
     </row>
     <row r="106">
-      <c r="A106" s="127"/>
-      <c r="B106" s="128"/>
+      <c r="A106" s="66"/>
+      <c r="B106" s="67"/>
       <c r="C106" s="114"/>
       <c r="D106" s="114"/>
       <c r="E106" s="114"/>
@@ -4341,8 +4299,8 @@
       <c r="N106" s="114"/>
     </row>
     <row r="107">
-      <c r="A107" s="127"/>
-      <c r="B107" s="128"/>
+      <c r="A107" s="66"/>
+      <c r="B107" s="67"/>
       <c r="C107" s="114"/>
       <c r="D107" s="114"/>
       <c r="E107" s="114"/>
@@ -4352,13 +4310,13 @@
       <c r="I107" s="111"/>
       <c r="J107" s="111"/>
       <c r="K107" s="114"/>
-      <c r="L107" s="129"/>
+      <c r="L107" s="118"/>
       <c r="M107" s="114"/>
       <c r="N107" s="114"/>
     </row>
     <row r="108">
-      <c r="A108" s="127"/>
-      <c r="B108" s="128"/>
+      <c r="A108" s="66"/>
+      <c r="B108" s="67"/>
       <c r="C108" s="114"/>
       <c r="D108" s="114"/>
       <c r="E108" s="114"/>
@@ -4377,8 +4335,8 @@
       <c r="N108" s="114"/>
     </row>
     <row r="109">
-      <c r="A109" s="127"/>
-      <c r="B109" s="128"/>
+      <c r="A109" s="66"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="111"/>
       <c r="D109" s="111"/>
       <c r="E109" s="111"/>
@@ -4393,8 +4351,8 @@
       <c r="N109" s="114"/>
     </row>
     <row r="110">
-      <c r="A110" s="127"/>
-      <c r="B110" s="128"/>
+      <c r="A110" s="66"/>
+      <c r="B110" s="67"/>
       <c r="C110" s="76"/>
       <c r="D110" s="77"/>
       <c r="E110" s="50" t="s">
@@ -4415,8 +4373,8 @@
       <c r="N110" s="114"/>
     </row>
     <row r="111">
-      <c r="A111" s="130"/>
-      <c r="B111" s="131"/>
+      <c r="A111" s="79"/>
+      <c r="B111" s="48"/>
       <c r="C111" s="111"/>
       <c r="D111" s="111"/>
       <c r="E111" s="111"/>
@@ -4512,7 +4470,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="134">
+      <c r="A115" s="127">
         <v>5</v>
       </c>
       <c r="B115" s="58">
@@ -4541,8 +4499,8 @@
       <c r="N115" s="100"/>
     </row>
     <row r="116">
-      <c r="A116" s="135"/>
-      <c r="B116" s="128"/>
+      <c r="A116" s="128"/>
+      <c r="B116" s="67"/>
       <c r="C116" s="111"/>
       <c r="D116" s="111"/>
       <c r="E116" s="55"/>
@@ -4552,13 +4510,13 @@
       <c r="I116" s="111"/>
       <c r="J116" s="111"/>
       <c r="K116" s="111"/>
-      <c r="L116" s="131"/>
+      <c r="L116" s="48"/>
       <c r="M116" s="102"/>
       <c r="N116" s="111"/>
     </row>
     <row r="117">
-      <c r="A117" s="135"/>
-      <c r="B117" s="128"/>
+      <c r="A117" s="128"/>
+      <c r="B117" s="67"/>
       <c r="C117" s="95" t="s">
         <v>64</v>
       </c>
@@ -4581,8 +4539,8 @@
       <c r="N117" s="100"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="135"/>
-      <c r="B118" s="128"/>
+      <c r="A118" s="128"/>
+      <c r="B118" s="67"/>
       <c r="C118" s="111"/>
       <c r="D118" s="111"/>
       <c r="E118" s="55"/>
@@ -4592,17 +4550,17 @@
       <c r="I118" s="111"/>
       <c r="J118" s="111"/>
       <c r="K118" s="111"/>
-      <c r="L118" s="131"/>
+      <c r="L118" s="48"/>
       <c r="M118" s="102"/>
       <c r="N118" s="111"/>
     </row>
     <row r="119">
-      <c r="A119" s="135"/>
-      <c r="B119" s="128"/>
-      <c r="C119" s="136" t="s">
+      <c r="A119" s="128"/>
+      <c r="B119" s="67"/>
+      <c r="C119" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D119" s="137"/>
+      <c r="D119" s="62"/>
       <c r="E119" s="61" t="s">
         <v>49</v>
       </c>
@@ -4611,8 +4569,8 @@
       <c r="H119" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="I119" s="138"/>
-      <c r="J119" s="139"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="50"/>
       <c r="K119" s="51"/>
       <c r="L119" s="98"/>
       <c r="M119" s="99" t="s">
@@ -4621,24 +4579,24 @@
       <c r="N119" s="100"/>
     </row>
     <row r="120">
-      <c r="A120" s="135"/>
-      <c r="B120" s="128"/>
-      <c r="C120" s="140"/>
-      <c r="D120" s="140"/>
+      <c r="A120" s="128"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="111"/>
+      <c r="D120" s="111"/>
       <c r="E120" s="55"/>
       <c r="F120" s="111"/>
       <c r="G120" s="111"/>
-      <c r="H120" s="141"/>
-      <c r="I120" s="140"/>
-      <c r="J120" s="140"/>
+      <c r="H120" s="129"/>
+      <c r="I120" s="111"/>
+      <c r="J120" s="111"/>
       <c r="K120" s="111"/>
-      <c r="L120" s="131"/>
+      <c r="L120" s="48"/>
       <c r="M120" s="102"/>
       <c r="N120" s="111"/>
     </row>
     <row r="121">
-      <c r="A121" s="135"/>
-      <c r="B121" s="128"/>
+      <c r="A121" s="128"/>
+      <c r="B121" s="67"/>
       <c r="C121" s="95" t="s">
         <v>64</v>
       </c>
@@ -4661,8 +4619,8 @@
       <c r="N121" s="100"/>
     </row>
     <row r="122">
-      <c r="A122" s="142"/>
-      <c r="B122" s="131"/>
+      <c r="A122" s="130"/>
+      <c r="B122" s="48"/>
       <c r="C122" s="111"/>
       <c r="D122" s="111"/>
       <c r="E122" s="55"/>
@@ -4800,8 +4758,8 @@
       <c r="N127" s="64"/>
     </row>
     <row r="128">
-      <c r="A128" s="127"/>
-      <c r="B128" s="128"/>
+      <c r="A128" s="66"/>
+      <c r="B128" s="67"/>
       <c r="C128" s="49"/>
       <c r="D128" s="49"/>
       <c r="E128" s="50" t="s">
@@ -4822,8 +4780,8 @@
       <c r="N128" s="114"/>
     </row>
     <row r="129">
-      <c r="A129" s="127"/>
-      <c r="B129" s="128"/>
+      <c r="A129" s="66"/>
+      <c r="B129" s="67"/>
       <c r="C129" s="114"/>
       <c r="D129" s="114"/>
       <c r="E129" s="114"/>
@@ -4833,15 +4791,15 @@
         <v>46</v>
       </c>
       <c r="I129" s="72"/>
-      <c r="J129" s="143"/>
+      <c r="J129" s="65"/>
       <c r="K129" s="114"/>
-      <c r="L129" s="144"/>
+      <c r="L129" s="117"/>
       <c r="M129" s="114"/>
       <c r="N129" s="114"/>
     </row>
     <row r="130">
-      <c r="A130" s="127"/>
-      <c r="B130" s="128"/>
+      <c r="A130" s="66"/>
+      <c r="B130" s="67"/>
       <c r="C130" s="114"/>
       <c r="D130" s="114"/>
       <c r="E130" s="114"/>
@@ -4851,13 +4809,13 @@
       <c r="I130" s="111"/>
       <c r="J130" s="111"/>
       <c r="K130" s="114"/>
-      <c r="L130" s="145"/>
+      <c r="L130" s="118"/>
       <c r="M130" s="114"/>
       <c r="N130" s="114"/>
     </row>
     <row r="131">
-      <c r="A131" s="127"/>
-      <c r="B131" s="128"/>
+      <c r="A131" s="66"/>
+      <c r="B131" s="67"/>
       <c r="C131" s="114"/>
       <c r="D131" s="114"/>
       <c r="E131" s="114"/>
@@ -4867,7 +4825,7 @@
         <v>47</v>
       </c>
       <c r="I131" s="62"/>
-      <c r="J131" s="143"/>
+      <c r="J131" s="65"/>
       <c r="K131" s="114"/>
       <c r="L131" s="115" t="s">
         <v>48</v>
@@ -4876,8 +4834,8 @@
       <c r="N131" s="114"/>
     </row>
     <row r="132">
-      <c r="A132" s="127"/>
-      <c r="B132" s="128"/>
+      <c r="A132" s="66"/>
+      <c r="B132" s="67"/>
       <c r="C132" s="111"/>
       <c r="D132" s="111"/>
       <c r="E132" s="111"/>
@@ -4892,8 +4850,8 @@
       <c r="N132" s="114"/>
     </row>
     <row r="133">
-      <c r="A133" s="127"/>
-      <c r="B133" s="128"/>
+      <c r="A133" s="66"/>
+      <c r="B133" s="67"/>
       <c r="C133" s="76"/>
       <c r="D133" s="77"/>
       <c r="E133" s="50" t="s">
@@ -4914,8 +4872,8 @@
       <c r="N133" s="114"/>
     </row>
     <row r="134">
-      <c r="A134" s="130"/>
-      <c r="B134" s="131"/>
+      <c r="A134" s="79"/>
+      <c r="B134" s="48"/>
       <c r="C134" s="111"/>
       <c r="D134" s="111"/>
       <c r="E134" s="111"/>
@@ -5040,8 +4998,8 @@
       <c r="N138" s="100"/>
     </row>
     <row r="139">
-      <c r="A139" s="132"/>
-      <c r="B139" s="128"/>
+      <c r="A139" s="101"/>
+      <c r="B139" s="67"/>
       <c r="C139" s="111"/>
       <c r="D139" s="111"/>
       <c r="E139" s="55"/>
@@ -5051,13 +5009,13 @@
       <c r="I139" s="111"/>
       <c r="J139" s="111"/>
       <c r="K139" s="111"/>
-      <c r="L139" s="131"/>
+      <c r="L139" s="48"/>
       <c r="M139" s="102"/>
       <c r="N139" s="111"/>
     </row>
     <row r="140">
-      <c r="A140" s="132"/>
-      <c r="B140" s="128"/>
+      <c r="A140" s="101"/>
+      <c r="B140" s="67"/>
       <c r="C140" s="95" t="s">
         <v>64</v>
       </c>
@@ -5080,24 +5038,24 @@
       <c r="N140" s="100"/>
     </row>
     <row r="141">
-      <c r="A141" s="132"/>
-      <c r="B141" s="128"/>
+      <c r="A141" s="101"/>
+      <c r="B141" s="67"/>
       <c r="C141" s="111"/>
       <c r="D141" s="111"/>
       <c r="E141" s="55"/>
       <c r="F141" s="111"/>
       <c r="G141" s="111"/>
-      <c r="H141" s="146"/>
+      <c r="H141" s="131"/>
       <c r="I141" s="111"/>
       <c r="J141" s="111"/>
       <c r="K141" s="111"/>
-      <c r="L141" s="131"/>
+      <c r="L141" s="48"/>
       <c r="M141" s="102"/>
       <c r="N141" s="111"/>
     </row>
     <row r="142">
-      <c r="A142" s="132"/>
-      <c r="B142" s="128"/>
+      <c r="A142" s="101"/>
+      <c r="B142" s="67"/>
       <c r="C142" s="95" t="s">
         <v>64</v>
       </c>
@@ -5120,24 +5078,24 @@
       <c r="N142" s="100"/>
     </row>
     <row r="143">
-      <c r="A143" s="132"/>
-      <c r="B143" s="128"/>
+      <c r="A143" s="101"/>
+      <c r="B143" s="67"/>
       <c r="C143" s="111"/>
       <c r="D143" s="111"/>
       <c r="E143" s="55"/>
       <c r="F143" s="111"/>
       <c r="G143" s="111"/>
-      <c r="H143" s="147"/>
+      <c r="H143" s="132"/>
       <c r="I143" s="111"/>
       <c r="J143" s="111"/>
       <c r="K143" s="111"/>
-      <c r="L143" s="131"/>
+      <c r="L143" s="48"/>
       <c r="M143" s="102"/>
       <c r="N143" s="111"/>
     </row>
     <row r="144">
-      <c r="A144" s="132"/>
-      <c r="B144" s="128"/>
+      <c r="A144" s="101"/>
+      <c r="B144" s="67"/>
       <c r="C144" s="95" t="s">
         <v>64</v>
       </c>
@@ -5160,14 +5118,14 @@
       <c r="N144" s="100"/>
     </row>
     <row r="145">
-      <c r="A145" s="133"/>
-      <c r="B145" s="131"/>
+      <c r="A145" s="108"/>
+      <c r="B145" s="48"/>
       <c r="C145" s="111"/>
       <c r="D145" s="111"/>
       <c r="E145" s="55"/>
       <c r="F145" s="111"/>
       <c r="G145" s="111"/>
-      <c r="H145" s="147"/>
+      <c r="H145" s="132"/>
       <c r="I145" s="111"/>
       <c r="J145" s="111"/>
       <c r="K145" s="111"/>
@@ -5299,8 +5257,8 @@
       <c r="N150" s="64"/>
     </row>
     <row r="151">
-      <c r="A151" s="127"/>
-      <c r="B151" s="128"/>
+      <c r="A151" s="66"/>
+      <c r="B151" s="67"/>
       <c r="C151" s="49"/>
       <c r="D151" s="49"/>
       <c r="E151" s="50" t="s">
@@ -5321,8 +5279,8 @@
       <c r="N151" s="114"/>
     </row>
     <row r="152">
-      <c r="A152" s="127"/>
-      <c r="B152" s="128"/>
+      <c r="A152" s="66"/>
+      <c r="B152" s="67"/>
       <c r="C152" s="114"/>
       <c r="D152" s="114"/>
       <c r="E152" s="114"/>
@@ -5332,15 +5290,15 @@
         <v>46</v>
       </c>
       <c r="I152" s="72"/>
-      <c r="J152" s="143"/>
+      <c r="J152" s="65"/>
       <c r="K152" s="114"/>
-      <c r="L152" s="144"/>
+      <c r="L152" s="117"/>
       <c r="M152" s="114"/>
       <c r="N152" s="114"/>
     </row>
     <row r="153">
-      <c r="A153" s="127"/>
-      <c r="B153" s="128"/>
+      <c r="A153" s="66"/>
+      <c r="B153" s="67"/>
       <c r="C153" s="114"/>
       <c r="D153" s="114"/>
       <c r="E153" s="114"/>
@@ -5350,13 +5308,13 @@
       <c r="I153" s="111"/>
       <c r="J153" s="111"/>
       <c r="K153" s="114"/>
-      <c r="L153" s="145"/>
+      <c r="L153" s="118"/>
       <c r="M153" s="114"/>
       <c r="N153" s="114"/>
     </row>
     <row r="154">
-      <c r="A154" s="127"/>
-      <c r="B154" s="128"/>
+      <c r="A154" s="66"/>
+      <c r="B154" s="67"/>
       <c r="C154" s="114"/>
       <c r="D154" s="114"/>
       <c r="E154" s="114"/>
@@ -5366,7 +5324,7 @@
         <v>47</v>
       </c>
       <c r="I154" s="62"/>
-      <c r="J154" s="143"/>
+      <c r="J154" s="65"/>
       <c r="K154" s="114"/>
       <c r="L154" s="115" t="s">
         <v>48</v>
@@ -5375,8 +5333,8 @@
       <c r="N154" s="114"/>
     </row>
     <row r="155">
-      <c r="A155" s="127"/>
-      <c r="B155" s="128"/>
+      <c r="A155" s="66"/>
+      <c r="B155" s="67"/>
       <c r="C155" s="111"/>
       <c r="D155" s="111"/>
       <c r="E155" s="111"/>
@@ -5391,8 +5349,8 @@
       <c r="N155" s="114"/>
     </row>
     <row r="156">
-      <c r="A156" s="127"/>
-      <c r="B156" s="128"/>
+      <c r="A156" s="66"/>
+      <c r="B156" s="67"/>
       <c r="C156" s="76"/>
       <c r="D156" s="77"/>
       <c r="E156" s="50" t="s">
@@ -5413,8 +5371,8 @@
       <c r="N156" s="114"/>
     </row>
     <row r="157">
-      <c r="A157" s="130"/>
-      <c r="B157" s="131"/>
+      <c r="A157" s="79"/>
+      <c r="B157" s="48"/>
       <c r="C157" s="111"/>
       <c r="D157" s="111"/>
       <c r="E157" s="111"/>
@@ -5539,8 +5497,8 @@
       <c r="N161" s="100"/>
     </row>
     <row r="162">
-      <c r="A162" s="132"/>
-      <c r="B162" s="128"/>
+      <c r="A162" s="101"/>
+      <c r="B162" s="67"/>
       <c r="C162" s="111"/>
       <c r="D162" s="111"/>
       <c r="E162" s="55"/>
@@ -5550,13 +5508,13 @@
       <c r="I162" s="111"/>
       <c r="J162" s="111"/>
       <c r="K162" s="111"/>
-      <c r="L162" s="131"/>
+      <c r="L162" s="48"/>
       <c r="M162" s="102"/>
       <c r="N162" s="111"/>
     </row>
     <row r="163">
-      <c r="A163" s="132"/>
-      <c r="B163" s="128"/>
+      <c r="A163" s="101"/>
+      <c r="B163" s="67"/>
       <c r="C163" s="95" t="s">
         <v>64</v>
       </c>
@@ -5579,8 +5537,8 @@
       <c r="N163" s="100"/>
     </row>
     <row r="164">
-      <c r="A164" s="132"/>
-      <c r="B164" s="128"/>
+      <c r="A164" s="101"/>
+      <c r="B164" s="67"/>
       <c r="C164" s="111"/>
       <c r="D164" s="111"/>
       <c r="E164" s="55"/>
@@ -5590,13 +5548,13 @@
       <c r="I164" s="111"/>
       <c r="J164" s="111"/>
       <c r="K164" s="111"/>
-      <c r="L164" s="131"/>
+      <c r="L164" s="48"/>
       <c r="M164" s="102"/>
       <c r="N164" s="111"/>
     </row>
     <row r="165">
-      <c r="A165" s="132"/>
-      <c r="B165" s="128"/>
+      <c r="A165" s="101"/>
+      <c r="B165" s="67"/>
       <c r="C165" s="95" t="s">
         <v>64</v>
       </c>
@@ -5619,8 +5577,8 @@
       <c r="N165" s="100"/>
     </row>
     <row r="166">
-      <c r="A166" s="132"/>
-      <c r="B166" s="128"/>
+      <c r="A166" s="101"/>
+      <c r="B166" s="67"/>
       <c r="C166" s="111"/>
       <c r="D166" s="111"/>
       <c r="E166" s="55"/>
@@ -5630,13 +5588,13 @@
       <c r="I166" s="111"/>
       <c r="J166" s="111"/>
       <c r="K166" s="111"/>
-      <c r="L166" s="131"/>
+      <c r="L166" s="48"/>
       <c r="M166" s="102"/>
       <c r="N166" s="111"/>
     </row>
     <row r="167">
-      <c r="A167" s="132"/>
-      <c r="B167" s="128"/>
+      <c r="A167" s="101"/>
+      <c r="B167" s="67"/>
       <c r="C167" s="95" t="s">
         <v>64</v>
       </c>
@@ -5659,8 +5617,8 @@
       <c r="N167" s="100"/>
     </row>
     <row r="168">
-      <c r="A168" s="133"/>
-      <c r="B168" s="131"/>
+      <c r="A168" s="108"/>
+      <c r="B168" s="48"/>
       <c r="C168" s="111"/>
       <c r="D168" s="111"/>
       <c r="E168" s="55"/>
@@ -5798,8 +5756,8 @@
       <c r="N173" s="64"/>
     </row>
     <row r="174">
-      <c r="A174" s="127"/>
-      <c r="B174" s="128"/>
+      <c r="A174" s="66"/>
+      <c r="B174" s="67"/>
       <c r="C174" s="49"/>
       <c r="D174" s="49"/>
       <c r="E174" s="50" t="s">
@@ -5820,8 +5778,8 @@
       <c r="N174" s="114"/>
     </row>
     <row r="175">
-      <c r="A175" s="127"/>
-      <c r="B175" s="128"/>
+      <c r="A175" s="66"/>
+      <c r="B175" s="67"/>
       <c r="C175" s="114"/>
       <c r="D175" s="114"/>
       <c r="E175" s="114"/>
@@ -5831,15 +5789,15 @@
         <v>46</v>
       </c>
       <c r="I175" s="72"/>
-      <c r="J175" s="143"/>
+      <c r="J175" s="65"/>
       <c r="K175" s="114"/>
-      <c r="L175" s="144"/>
+      <c r="L175" s="117"/>
       <c r="M175" s="114"/>
       <c r="N175" s="114"/>
     </row>
     <row r="176">
-      <c r="A176" s="127"/>
-      <c r="B176" s="128"/>
+      <c r="A176" s="66"/>
+      <c r="B176" s="67"/>
       <c r="C176" s="114"/>
       <c r="D176" s="114"/>
       <c r="E176" s="114"/>
@@ -5849,13 +5807,13 @@
       <c r="I176" s="111"/>
       <c r="J176" s="111"/>
       <c r="K176" s="114"/>
-      <c r="L176" s="145"/>
+      <c r="L176" s="118"/>
       <c r="M176" s="114"/>
       <c r="N176" s="114"/>
     </row>
     <row r="177">
-      <c r="A177" s="127"/>
-      <c r="B177" s="128"/>
+      <c r="A177" s="66"/>
+      <c r="B177" s="67"/>
       <c r="C177" s="114"/>
       <c r="D177" s="114"/>
       <c r="E177" s="114"/>
@@ -5865,7 +5823,7 @@
         <v>47</v>
       </c>
       <c r="I177" s="62"/>
-      <c r="J177" s="143"/>
+      <c r="J177" s="65"/>
       <c r="K177" s="114"/>
       <c r="L177" s="115" t="s">
         <v>48</v>
@@ -5874,8 +5832,8 @@
       <c r="N177" s="114"/>
     </row>
     <row r="178">
-      <c r="A178" s="127"/>
-      <c r="B178" s="128"/>
+      <c r="A178" s="66"/>
+      <c r="B178" s="67"/>
       <c r="C178" s="111"/>
       <c r="D178" s="111"/>
       <c r="E178" s="111"/>
@@ -5890,8 +5848,8 @@
       <c r="N178" s="114"/>
     </row>
     <row r="179">
-      <c r="A179" s="127"/>
-      <c r="B179" s="128"/>
+      <c r="A179" s="66"/>
+      <c r="B179" s="67"/>
       <c r="C179" s="76"/>
       <c r="D179" s="77"/>
       <c r="E179" s="50" t="s">
@@ -5912,8 +5870,8 @@
       <c r="N179" s="114"/>
     </row>
     <row r="180">
-      <c r="A180" s="130"/>
-      <c r="B180" s="131"/>
+      <c r="A180" s="79"/>
+      <c r="B180" s="48"/>
       <c r="C180" s="111"/>
       <c r="D180" s="111"/>
       <c r="E180" s="111"/>
@@ -6038,8 +5996,8 @@
       <c r="N184" s="100"/>
     </row>
     <row r="185">
-      <c r="A185" s="132"/>
-      <c r="B185" s="128"/>
+      <c r="A185" s="101"/>
+      <c r="B185" s="67"/>
       <c r="C185" s="111"/>
       <c r="D185" s="111"/>
       <c r="E185" s="55"/>
@@ -6049,13 +6007,13 @@
       <c r="I185" s="111"/>
       <c r="J185" s="111"/>
       <c r="K185" s="111"/>
-      <c r="L185" s="131"/>
+      <c r="L185" s="48"/>
       <c r="M185" s="102"/>
       <c r="N185" s="111"/>
     </row>
     <row r="186">
-      <c r="A186" s="132"/>
-      <c r="B186" s="128"/>
+      <c r="A186" s="101"/>
+      <c r="B186" s="67"/>
       <c r="C186" s="95" t="s">
         <v>64</v>
       </c>
@@ -6078,8 +6036,8 @@
       <c r="N186" s="100"/>
     </row>
     <row r="187">
-      <c r="A187" s="132"/>
-      <c r="B187" s="128"/>
+      <c r="A187" s="101"/>
+      <c r="B187" s="67"/>
       <c r="C187" s="111"/>
       <c r="D187" s="111"/>
       <c r="E187" s="55"/>
@@ -6089,13 +6047,13 @@
       <c r="I187" s="111"/>
       <c r="J187" s="111"/>
       <c r="K187" s="111"/>
-      <c r="L187" s="131"/>
+      <c r="L187" s="48"/>
       <c r="M187" s="102"/>
       <c r="N187" s="111"/>
     </row>
     <row r="188">
-      <c r="A188" s="132"/>
-      <c r="B188" s="128"/>
+      <c r="A188" s="101"/>
+      <c r="B188" s="67"/>
       <c r="C188" s="95" t="s">
         <v>64</v>
       </c>
@@ -6118,8 +6076,8 @@
       <c r="N188" s="100"/>
     </row>
     <row r="189">
-      <c r="A189" s="132"/>
-      <c r="B189" s="128"/>
+      <c r="A189" s="101"/>
+      <c r="B189" s="67"/>
       <c r="C189" s="111"/>
       <c r="D189" s="111"/>
       <c r="E189" s="55"/>
@@ -6129,13 +6087,13 @@
       <c r="I189" s="111"/>
       <c r="J189" s="111"/>
       <c r="K189" s="111"/>
-      <c r="L189" s="131"/>
+      <c r="L189" s="48"/>
       <c r="M189" s="102"/>
       <c r="N189" s="111"/>
     </row>
     <row r="190">
-      <c r="A190" s="132"/>
-      <c r="B190" s="128"/>
+      <c r="A190" s="101"/>
+      <c r="B190" s="67"/>
       <c r="C190" s="95" t="s">
         <v>64</v>
       </c>
@@ -6158,8 +6116,8 @@
       <c r="N190" s="100"/>
     </row>
     <row r="191">
-      <c r="A191" s="133"/>
-      <c r="B191" s="131"/>
+      <c r="A191" s="108"/>
+      <c r="B191" s="48"/>
       <c r="C191" s="111"/>
       <c r="D191" s="111"/>
       <c r="E191" s="55"/>
@@ -6297,8 +6255,8 @@
       <c r="N196" s="64"/>
     </row>
     <row r="197">
-      <c r="A197" s="127"/>
-      <c r="B197" s="128"/>
+      <c r="A197" s="66"/>
+      <c r="B197" s="67"/>
       <c r="C197" s="49"/>
       <c r="D197" s="49"/>
       <c r="E197" s="50" t="s">
@@ -6319,8 +6277,8 @@
       <c r="N197" s="114"/>
     </row>
     <row r="198">
-      <c r="A198" s="127"/>
-      <c r="B198" s="128"/>
+      <c r="A198" s="66"/>
+      <c r="B198" s="67"/>
       <c r="C198" s="114"/>
       <c r="D198" s="114"/>
       <c r="E198" s="114"/>
@@ -6337,8 +6295,8 @@
       <c r="N198" s="114"/>
     </row>
     <row r="199">
-      <c r="A199" s="127"/>
-      <c r="B199" s="128"/>
+      <c r="A199" s="66"/>
+      <c r="B199" s="67"/>
       <c r="C199" s="114"/>
       <c r="D199" s="114"/>
       <c r="E199" s="114"/>
@@ -6348,13 +6306,13 @@
       <c r="I199" s="111"/>
       <c r="J199" s="111"/>
       <c r="K199" s="114"/>
-      <c r="L199" s="129"/>
+      <c r="L199" s="118"/>
       <c r="M199" s="114"/>
       <c r="N199" s="114"/>
     </row>
     <row r="200">
-      <c r="A200" s="127"/>
-      <c r="B200" s="128"/>
+      <c r="A200" s="66"/>
+      <c r="B200" s="67"/>
       <c r="C200" s="114"/>
       <c r="D200" s="114"/>
       <c r="E200" s="114"/>
@@ -6373,8 +6331,8 @@
       <c r="N200" s="114"/>
     </row>
     <row r="201">
-      <c r="A201" s="127"/>
-      <c r="B201" s="128"/>
+      <c r="A201" s="66"/>
+      <c r="B201" s="67"/>
       <c r="C201" s="111"/>
       <c r="D201" s="111"/>
       <c r="E201" s="111"/>
@@ -6389,8 +6347,8 @@
       <c r="N201" s="114"/>
     </row>
     <row r="202">
-      <c r="A202" s="127"/>
-      <c r="B202" s="128"/>
+      <c r="A202" s="66"/>
+      <c r="B202" s="67"/>
       <c r="C202" s="76"/>
       <c r="D202" s="77"/>
       <c r="E202" s="50" t="s">
@@ -6411,8 +6369,8 @@
       <c r="N202" s="114"/>
     </row>
     <row r="203">
-      <c r="A203" s="130"/>
-      <c r="B203" s="131"/>
+      <c r="A203" s="79"/>
+      <c r="B203" s="48"/>
       <c r="C203" s="111"/>
       <c r="D203" s="111"/>
       <c r="E203" s="111"/>
@@ -6537,8 +6495,8 @@
       <c r="N207" s="100"/>
     </row>
     <row r="208">
-      <c r="A208" s="132"/>
-      <c r="B208" s="128"/>
+      <c r="A208" s="101"/>
+      <c r="B208" s="67"/>
       <c r="C208" s="111"/>
       <c r="D208" s="111"/>
       <c r="E208" s="55"/>
@@ -6548,13 +6506,13 @@
       <c r="I208" s="111"/>
       <c r="J208" s="111"/>
       <c r="K208" s="111"/>
-      <c r="L208" s="131"/>
+      <c r="L208" s="48"/>
       <c r="M208" s="102"/>
       <c r="N208" s="111"/>
     </row>
     <row r="209">
-      <c r="A209" s="132"/>
-      <c r="B209" s="128"/>
+      <c r="A209" s="101"/>
+      <c r="B209" s="67"/>
       <c r="C209" s="95" t="s">
         <v>64</v>
       </c>
@@ -6577,8 +6535,8 @@
       <c r="N209" s="100"/>
     </row>
     <row r="210">
-      <c r="A210" s="132"/>
-      <c r="B210" s="128"/>
+      <c r="A210" s="101"/>
+      <c r="B210" s="67"/>
       <c r="C210" s="111"/>
       <c r="D210" s="111"/>
       <c r="E210" s="55"/>
@@ -6588,13 +6546,13 @@
       <c r="I210" s="111"/>
       <c r="J210" s="111"/>
       <c r="K210" s="111"/>
-      <c r="L210" s="131"/>
+      <c r="L210" s="48"/>
       <c r="M210" s="102"/>
       <c r="N210" s="111"/>
     </row>
     <row r="211">
-      <c r="A211" s="132"/>
-      <c r="B211" s="128"/>
+      <c r="A211" s="101"/>
+      <c r="B211" s="67"/>
       <c r="C211" s="95" t="s">
         <v>64</v>
       </c>
@@ -6617,8 +6575,8 @@
       <c r="N211" s="100"/>
     </row>
     <row r="212">
-      <c r="A212" s="132"/>
-      <c r="B212" s="128"/>
+      <c r="A212" s="101"/>
+      <c r="B212" s="67"/>
       <c r="C212" s="111"/>
       <c r="D212" s="111"/>
       <c r="E212" s="55"/>
@@ -6628,13 +6586,13 @@
       <c r="I212" s="111"/>
       <c r="J212" s="111"/>
       <c r="K212" s="111"/>
-      <c r="L212" s="131"/>
+      <c r="L212" s="48"/>
       <c r="M212" s="102"/>
       <c r="N212" s="111"/>
     </row>
     <row r="213">
-      <c r="A213" s="132"/>
-      <c r="B213" s="128"/>
+      <c r="A213" s="101"/>
+      <c r="B213" s="67"/>
       <c r="C213" s="95" t="s">
         <v>64</v>
       </c>
@@ -6657,8 +6615,8 @@
       <c r="N213" s="100"/>
     </row>
     <row r="214">
-      <c r="A214" s="133"/>
-      <c r="B214" s="131"/>
+      <c r="A214" s="108"/>
+      <c r="B214" s="48"/>
       <c r="C214" s="111"/>
       <c r="D214" s="111"/>
       <c r="E214" s="55"/>
@@ -6796,8 +6754,8 @@
       <c r="N219" s="64"/>
     </row>
     <row r="220">
-      <c r="A220" s="127"/>
-      <c r="B220" s="128"/>
+      <c r="A220" s="66"/>
+      <c r="B220" s="67"/>
       <c r="C220" s="49"/>
       <c r="D220" s="49"/>
       <c r="E220" s="50" t="s">
@@ -6818,8 +6776,8 @@
       <c r="N220" s="114"/>
     </row>
     <row r="221">
-      <c r="A221" s="127"/>
-      <c r="B221" s="128"/>
+      <c r="A221" s="66"/>
+      <c r="B221" s="67"/>
       <c r="C221" s="114"/>
       <c r="D221" s="114"/>
       <c r="E221" s="114"/>
@@ -6836,8 +6794,8 @@
       <c r="N221" s="114"/>
     </row>
     <row r="222">
-      <c r="A222" s="127"/>
-      <c r="B222" s="128"/>
+      <c r="A222" s="66"/>
+      <c r="B222" s="67"/>
       <c r="C222" s="114"/>
       <c r="D222" s="114"/>
       <c r="E222" s="114"/>
@@ -6847,13 +6805,13 @@
       <c r="I222" s="111"/>
       <c r="J222" s="111"/>
       <c r="K222" s="114"/>
-      <c r="L222" s="129"/>
+      <c r="L222" s="118"/>
       <c r="M222" s="114"/>
       <c r="N222" s="114"/>
     </row>
     <row r="223">
-      <c r="A223" s="127"/>
-      <c r="B223" s="128"/>
+      <c r="A223" s="66"/>
+      <c r="B223" s="67"/>
       <c r="C223" s="114"/>
       <c r="D223" s="114"/>
       <c r="E223" s="114"/>
@@ -6872,8 +6830,8 @@
       <c r="N223" s="114"/>
     </row>
     <row r="224">
-      <c r="A224" s="127"/>
-      <c r="B224" s="128"/>
+      <c r="A224" s="66"/>
+      <c r="B224" s="67"/>
       <c r="C224" s="111"/>
       <c r="D224" s="111"/>
       <c r="E224" s="111"/>
@@ -6888,8 +6846,8 @@
       <c r="N224" s="114"/>
     </row>
     <row r="225">
-      <c r="A225" s="127"/>
-      <c r="B225" s="128"/>
+      <c r="A225" s="66"/>
+      <c r="B225" s="67"/>
       <c r="C225" s="76"/>
       <c r="D225" s="77"/>
       <c r="E225" s="50" t="s">
@@ -6910,8 +6868,8 @@
       <c r="N225" s="114"/>
     </row>
     <row r="226">
-      <c r="A226" s="130"/>
-      <c r="B226" s="131"/>
+      <c r="A226" s="79"/>
+      <c r="B226" s="48"/>
       <c r="C226" s="111"/>
       <c r="D226" s="111"/>
       <c r="E226" s="111"/>
@@ -7036,8 +6994,8 @@
       <c r="N230" s="100"/>
     </row>
     <row r="231">
-      <c r="A231" s="132"/>
-      <c r="B231" s="128"/>
+      <c r="A231" s="101"/>
+      <c r="B231" s="67"/>
       <c r="C231" s="111"/>
       <c r="D231" s="111"/>
       <c r="E231" s="55"/>
@@ -7047,13 +7005,13 @@
       <c r="I231" s="111"/>
       <c r="J231" s="111"/>
       <c r="K231" s="111"/>
-      <c r="L231" s="131"/>
+      <c r="L231" s="48"/>
       <c r="M231" s="102"/>
       <c r="N231" s="111"/>
     </row>
     <row r="232">
-      <c r="A232" s="132"/>
-      <c r="B232" s="128"/>
+      <c r="A232" s="101"/>
+      <c r="B232" s="67"/>
       <c r="C232" s="95" t="s">
         <v>64</v>
       </c>
@@ -7076,8 +7034,8 @@
       <c r="N232" s="100"/>
     </row>
     <row r="233">
-      <c r="A233" s="132"/>
-      <c r="B233" s="128"/>
+      <c r="A233" s="101"/>
+      <c r="B233" s="67"/>
       <c r="C233" s="111"/>
       <c r="D233" s="111"/>
       <c r="E233" s="55"/>
@@ -7087,13 +7045,13 @@
       <c r="I233" s="111"/>
       <c r="J233" s="111"/>
       <c r="K233" s="111"/>
-      <c r="L233" s="131"/>
+      <c r="L233" s="48"/>
       <c r="M233" s="102"/>
       <c r="N233" s="111"/>
     </row>
     <row r="234">
-      <c r="A234" s="132"/>
-      <c r="B234" s="128"/>
+      <c r="A234" s="101"/>
+      <c r="B234" s="67"/>
       <c r="C234" s="95" t="s">
         <v>64</v>
       </c>
@@ -7116,8 +7074,8 @@
       <c r="N234" s="100"/>
     </row>
     <row r="235">
-      <c r="A235" s="132"/>
-      <c r="B235" s="128"/>
+      <c r="A235" s="101"/>
+      <c r="B235" s="67"/>
       <c r="C235" s="111"/>
       <c r="D235" s="111"/>
       <c r="E235" s="55"/>
@@ -7127,13 +7085,13 @@
       <c r="I235" s="111"/>
       <c r="J235" s="111"/>
       <c r="K235" s="111"/>
-      <c r="L235" s="131"/>
+      <c r="L235" s="48"/>
       <c r="M235" s="102"/>
       <c r="N235" s="111"/>
     </row>
     <row r="236">
-      <c r="A236" s="132"/>
-      <c r="B236" s="128"/>
+      <c r="A236" s="101"/>
+      <c r="B236" s="67"/>
       <c r="C236" s="95" t="s">
         <v>64</v>
       </c>
@@ -7156,8 +7114,8 @@
       <c r="N236" s="100"/>
     </row>
     <row r="237">
-      <c r="A237" s="133"/>
-      <c r="B237" s="131"/>
+      <c r="A237" s="108"/>
+      <c r="B237" s="48"/>
       <c r="C237" s="111"/>
       <c r="D237" s="111"/>
       <c r="E237" s="55"/>
@@ -7295,8 +7253,8 @@
       <c r="N242" s="64"/>
     </row>
     <row r="243">
-      <c r="A243" s="127"/>
-      <c r="B243" s="128"/>
+      <c r="A243" s="66"/>
+      <c r="B243" s="67"/>
       <c r="C243" s="49"/>
       <c r="D243" s="49"/>
       <c r="E243" s="50" t="s">
@@ -7317,8 +7275,8 @@
       <c r="N243" s="114"/>
     </row>
     <row r="244">
-      <c r="A244" s="127"/>
-      <c r="B244" s="128"/>
+      <c r="A244" s="66"/>
+      <c r="B244" s="67"/>
       <c r="C244" s="114"/>
       <c r="D244" s="114"/>
       <c r="E244" s="114"/>
@@ -7335,8 +7293,8 @@
       <c r="N244" s="114"/>
     </row>
     <row r="245">
-      <c r="A245" s="127"/>
-      <c r="B245" s="128"/>
+      <c r="A245" s="66"/>
+      <c r="B245" s="67"/>
       <c r="C245" s="114"/>
       <c r="D245" s="114"/>
       <c r="E245" s="114"/>
@@ -7346,13 +7304,13 @@
       <c r="I245" s="111"/>
       <c r="J245" s="111"/>
       <c r="K245" s="114"/>
-      <c r="L245" s="129"/>
+      <c r="L245" s="118"/>
       <c r="M245" s="114"/>
       <c r="N245" s="114"/>
     </row>
     <row r="246">
-      <c r="A246" s="127"/>
-      <c r="B246" s="128"/>
+      <c r="A246" s="66"/>
+      <c r="B246" s="67"/>
       <c r="C246" s="114"/>
       <c r="D246" s="114"/>
       <c r="E246" s="114"/>
@@ -7371,8 +7329,8 @@
       <c r="N246" s="114"/>
     </row>
     <row r="247">
-      <c r="A247" s="127"/>
-      <c r="B247" s="128"/>
+      <c r="A247" s="66"/>
+      <c r="B247" s="67"/>
       <c r="C247" s="111"/>
       <c r="D247" s="111"/>
       <c r="E247" s="111"/>
@@ -7387,8 +7345,8 @@
       <c r="N247" s="114"/>
     </row>
     <row r="248">
-      <c r="A248" s="127"/>
-      <c r="B248" s="128"/>
+      <c r="A248" s="66"/>
+      <c r="B248" s="67"/>
       <c r="C248" s="76"/>
       <c r="D248" s="77"/>
       <c r="E248" s="50" t="s">
@@ -7409,8 +7367,8 @@
       <c r="N248" s="114"/>
     </row>
     <row r="249">
-      <c r="A249" s="130"/>
-      <c r="B249" s="131"/>
+      <c r="A249" s="79"/>
+      <c r="B249" s="48"/>
       <c r="C249" s="111"/>
       <c r="D249" s="111"/>
       <c r="E249" s="111"/>
@@ -7535,8 +7493,8 @@
       <c r="N253" s="100"/>
     </row>
     <row r="254">
-      <c r="A254" s="132"/>
-      <c r="B254" s="128"/>
+      <c r="A254" s="101"/>
+      <c r="B254" s="67"/>
       <c r="C254" s="111"/>
       <c r="D254" s="111"/>
       <c r="E254" s="55"/>
@@ -7546,13 +7504,13 @@
       <c r="I254" s="111"/>
       <c r="J254" s="111"/>
       <c r="K254" s="111"/>
-      <c r="L254" s="131"/>
+      <c r="L254" s="48"/>
       <c r="M254" s="102"/>
       <c r="N254" s="111"/>
     </row>
     <row r="255">
-      <c r="A255" s="132"/>
-      <c r="B255" s="128"/>
+      <c r="A255" s="101"/>
+      <c r="B255" s="67"/>
       <c r="C255" s="95" t="s">
         <v>64</v>
       </c>
@@ -7575,8 +7533,8 @@
       <c r="N255" s="100"/>
     </row>
     <row r="256">
-      <c r="A256" s="132"/>
-      <c r="B256" s="128"/>
+      <c r="A256" s="101"/>
+      <c r="B256" s="67"/>
       <c r="C256" s="111"/>
       <c r="D256" s="111"/>
       <c r="E256" s="55"/>
@@ -7586,13 +7544,13 @@
       <c r="I256" s="111"/>
       <c r="J256" s="111"/>
       <c r="K256" s="111"/>
-      <c r="L256" s="131"/>
+      <c r="L256" s="48"/>
       <c r="M256" s="102"/>
       <c r="N256" s="111"/>
     </row>
     <row r="257">
-      <c r="A257" s="132"/>
-      <c r="B257" s="128"/>
+      <c r="A257" s="101"/>
+      <c r="B257" s="67"/>
       <c r="C257" s="95" t="s">
         <v>64</v>
       </c>
@@ -7615,8 +7573,8 @@
       <c r="N257" s="100"/>
     </row>
     <row r="258">
-      <c r="A258" s="132"/>
-      <c r="B258" s="128"/>
+      <c r="A258" s="101"/>
+      <c r="B258" s="67"/>
       <c r="C258" s="111"/>
       <c r="D258" s="111"/>
       <c r="E258" s="55"/>
@@ -7626,13 +7584,13 @@
       <c r="I258" s="111"/>
       <c r="J258" s="111"/>
       <c r="K258" s="111"/>
-      <c r="L258" s="131"/>
+      <c r="L258" s="48"/>
       <c r="M258" s="102"/>
       <c r="N258" s="111"/>
     </row>
     <row r="259">
-      <c r="A259" s="132"/>
-      <c r="B259" s="128"/>
+      <c r="A259" s="101"/>
+      <c r="B259" s="67"/>
       <c r="C259" s="95" t="s">
         <v>64</v>
       </c>
@@ -7655,8 +7613,8 @@
       <c r="N259" s="100"/>
     </row>
     <row r="260">
-      <c r="A260" s="133"/>
-      <c r="B260" s="131"/>
+      <c r="A260" s="108"/>
+      <c r="B260" s="48"/>
       <c r="C260" s="111"/>
       <c r="D260" s="111"/>
       <c r="E260" s="55"/>
@@ -7794,8 +7752,8 @@
       <c r="N265" s="64"/>
     </row>
     <row r="266">
-      <c r="A266" s="127"/>
-      <c r="B266" s="128"/>
+      <c r="A266" s="66"/>
+      <c r="B266" s="67"/>
       <c r="C266" s="49"/>
       <c r="D266" s="49"/>
       <c r="E266" s="50" t="s">
@@ -7816,8 +7774,8 @@
       <c r="N266" s="114"/>
     </row>
     <row r="267">
-      <c r="A267" s="127"/>
-      <c r="B267" s="128"/>
+      <c r="A267" s="66"/>
+      <c r="B267" s="67"/>
       <c r="C267" s="114"/>
       <c r="D267" s="114"/>
       <c r="E267" s="114"/>
@@ -7834,8 +7792,8 @@
       <c r="N267" s="114"/>
     </row>
     <row r="268">
-      <c r="A268" s="127"/>
-      <c r="B268" s="128"/>
+      <c r="A268" s="66"/>
+      <c r="B268" s="67"/>
       <c r="C268" s="114"/>
       <c r="D268" s="114"/>
       <c r="E268" s="114"/>
@@ -7845,13 +7803,13 @@
       <c r="I268" s="111"/>
       <c r="J268" s="111"/>
       <c r="K268" s="114"/>
-      <c r="L268" s="129"/>
+      <c r="L268" s="118"/>
       <c r="M268" s="114"/>
       <c r="N268" s="114"/>
     </row>
     <row r="269">
-      <c r="A269" s="127"/>
-      <c r="B269" s="128"/>
+      <c r="A269" s="66"/>
+      <c r="B269" s="67"/>
       <c r="C269" s="114"/>
       <c r="D269" s="114"/>
       <c r="E269" s="114"/>
@@ -7870,8 +7828,8 @@
       <c r="N269" s="114"/>
     </row>
     <row r="270">
-      <c r="A270" s="127"/>
-      <c r="B270" s="128"/>
+      <c r="A270" s="66"/>
+      <c r="B270" s="67"/>
       <c r="C270" s="111"/>
       <c r="D270" s="111"/>
       <c r="E270" s="111"/>
@@ -7886,8 +7844,8 @@
       <c r="N270" s="114"/>
     </row>
     <row r="271">
-      <c r="A271" s="127"/>
-      <c r="B271" s="128"/>
+      <c r="A271" s="66"/>
+      <c r="B271" s="67"/>
       <c r="C271" s="76"/>
       <c r="D271" s="77"/>
       <c r="E271" s="50" t="s">
@@ -7908,8 +7866,8 @@
       <c r="N271" s="114"/>
     </row>
     <row r="272">
-      <c r="A272" s="130"/>
-      <c r="B272" s="131"/>
+      <c r="A272" s="79"/>
+      <c r="B272" s="48"/>
       <c r="C272" s="111"/>
       <c r="D272" s="111"/>
       <c r="E272" s="111"/>
@@ -8034,8 +7992,8 @@
       <c r="N276" s="100"/>
     </row>
     <row r="277">
-      <c r="A277" s="132"/>
-      <c r="B277" s="128"/>
+      <c r="A277" s="101"/>
+      <c r="B277" s="67"/>
       <c r="C277" s="111"/>
       <c r="D277" s="111"/>
       <c r="E277" s="55"/>
@@ -8045,13 +8003,13 @@
       <c r="I277" s="111"/>
       <c r="J277" s="111"/>
       <c r="K277" s="111"/>
-      <c r="L277" s="131"/>
+      <c r="L277" s="48"/>
       <c r="M277" s="102"/>
       <c r="N277" s="111"/>
     </row>
     <row r="278">
-      <c r="A278" s="132"/>
-      <c r="B278" s="128"/>
+      <c r="A278" s="101"/>
+      <c r="B278" s="67"/>
       <c r="C278" s="95" t="s">
         <v>64</v>
       </c>
@@ -8074,8 +8032,8 @@
       <c r="N278" s="100"/>
     </row>
     <row r="279">
-      <c r="A279" s="132"/>
-      <c r="B279" s="128"/>
+      <c r="A279" s="101"/>
+      <c r="B279" s="67"/>
       <c r="C279" s="111"/>
       <c r="D279" s="111"/>
       <c r="E279" s="55"/>
@@ -8085,13 +8043,13 @@
       <c r="I279" s="111"/>
       <c r="J279" s="111"/>
       <c r="K279" s="111"/>
-      <c r="L279" s="131"/>
+      <c r="L279" s="48"/>
       <c r="M279" s="102"/>
       <c r="N279" s="111"/>
     </row>
     <row r="280">
-      <c r="A280" s="132"/>
-      <c r="B280" s="128"/>
+      <c r="A280" s="101"/>
+      <c r="B280" s="67"/>
       <c r="C280" s="95" t="s">
         <v>64</v>
       </c>
@@ -8114,8 +8072,8 @@
       <c r="N280" s="100"/>
     </row>
     <row r="281">
-      <c r="A281" s="132"/>
-      <c r="B281" s="128"/>
+      <c r="A281" s="101"/>
+      <c r="B281" s="67"/>
       <c r="C281" s="111"/>
       <c r="D281" s="111"/>
       <c r="E281" s="55"/>
@@ -8125,13 +8083,13 @@
       <c r="I281" s="111"/>
       <c r="J281" s="111"/>
       <c r="K281" s="111"/>
-      <c r="L281" s="131"/>
+      <c r="L281" s="48"/>
       <c r="M281" s="102"/>
       <c r="N281" s="111"/>
     </row>
     <row r="282">
-      <c r="A282" s="132"/>
-      <c r="B282" s="128"/>
+      <c r="A282" s="101"/>
+      <c r="B282" s="67"/>
       <c r="C282" s="95" t="s">
         <v>64</v>
       </c>
@@ -8154,8 +8112,8 @@
       <c r="N282" s="100"/>
     </row>
     <row r="283">
-      <c r="A283" s="133"/>
-      <c r="B283" s="131"/>
+      <c r="A283" s="108"/>
+      <c r="B283" s="48"/>
       <c r="C283" s="111"/>
       <c r="D283" s="111"/>
       <c r="E283" s="55"/>
@@ -11245,805 +11203,805 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="134" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00E10074-00B5-4863-B440-00DD000F004F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{000D0073-00E4-48C8-9F58-00D900B80035}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Nivel Central Managua,Sede Ocotal,Sede Jalapa,Nueva Guinea,Sede Santo Tomás,Sede El Rama,Sede San Carlos,Sede Masaya,Sede Siuna,Sede Jinotega,Sede Chinandega,Sede León"</xm:f>
           </x14:formula1>
           <xm:sqref>G3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003400AF-0025-4496-8A91-00BC00FC006A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00EB00A1-00EA-414B-BA57-00AC006500DE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Clases teóricas,Clases prácticas"</xm:f>
           </x14:formula1>
           <xm:sqref>H14 H16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007B0075-0030-4854-8A37-00C8003300B9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004600DC-0041-4274-A8D2-006A00B300ED}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Evaluación diagnóstica,Presentación de asignatura,Presentación del grupo,Valoración del trabajo independiente,Realimentación del aprendizaje,Autoevaluación,Coevaluación"</xm:f>
           </x14:formula1>
           <xm:sqref>H12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00180034-008F-40C9-A44A-00530070002D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00540065-0012-481F-8249-0080001900F2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Laboratorio,Taller,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003000E3-00E4-49C6-9559-006F0011009E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{000100A0-0041-4223-8636-00CE003F00CA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conferencia,Seminario,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007E00AB-00EA-4EC4-910A-003B009F00E0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002300DD-00A5-4236-8E31-0004004C00A7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conceptual,Procedimental,Actitudinal"</xm:f>
           </x14:formula1>
           <xm:sqref>E11 E13 E18 E23 E25 E27 E29</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D000EC-003B-47A3-B73C-00C60073001D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{007B0012-000A-4F89-8FF8-002E00470058}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Fe cristiana,Proyección social,Emprendimiento e innovación,Investigación,Medio ambiente,Tecnología de la información y comunicación,Cultura de paz,Interculturalidad,Internacionalización,Competencias para la vida"</xm:f>
           </x14:formula1>
           <xm:sqref>N11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006D008D-004D-45CE-B203-0019003F00AC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{006F0098-00D6-49A5-855A-007000930024}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I Parcial,II Parcial,III Parcial"</xm:f>
           </x14:formula1>
           <xm:sqref>L11 M23 M25 M27 M29</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C00054-0051-4AE0-8E7A-006E00FC005E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004E0039-00A2-45A7-9687-000200660015}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Orientación del estudio independiente,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00970033-00E2-457A-8790-0037008F00F0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{003A0047-001E-43E2-B639-0041003D00EE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I:,II:,III:,IV:,V:,VI:"</xm:f>
           </x14:formula1>
           <xm:sqref>C12:C13 C18 C23 C25 C27 C29</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E000C9-00F5-4334-9765-000900F90055}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00A4006A-0019-4C80-A608-000700750066}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Acumulado 1,Acumulado 2,Acumulado 3,Acumulado 4,Examen"</xm:f>
           </x14:formula1>
           <xm:sqref>L12 M24 M26 M28 M30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008D0070-00E2-402F-B739-005500E20035}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00C600C1-007F-4AB1-80BC-00E700DB00AC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Téc.,Lic.,Ing.,MSc.,Dr.,Dra.,PhD,Esp,"</xm:f>
           </x14:formula1>
           <xm:sqref>C7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00210080-0005-4A30-954B-00B100DF00DF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005400DB-0037-4866-AB51-00FE00C300E5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Rúbrica,Lista de cotejo,Prueba oral,Prueba escrita,Registro anecdótico,Diario de trabajo,Portafolio,Cuaderno del estudiante,Organizador gráfico,Guía de estudio,Otros"</xm:f>
           </x14:formula1>
           <xm:sqref>L17 H23 H25 H27 H29</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00EE00A6-0009-4299-A160-00D600B70094}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00A10090-00C0-4C3B-BF0E-0079001C0074}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Clases teóricas,Clases prácticas"</xm:f>
           </x14:formula1>
           <xm:sqref>H37 H39</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D90017-00AF-48A4-8733-00E600AF0002}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005D005A-00FA-45B1-AA26-009000970036}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Evaluación diagnóstica,Presentación de asignatura,Presentación del grupo,Valoración del trabajo independiente,Realimentación del aprendizaje,Autoevaluación,Coevaluación"</xm:f>
           </x14:formula1>
           <xm:sqref>H35</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002E004D-004D-4E4F-8DD2-00DD006C0091}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00A6004C-0070-41C1-AFC5-00AF004100D5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Laboratorio,Taller,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H40</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0098007E-006D-4203-AA0F-00ED00FE002C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00F500EE-000F-4781-9F96-0033004A0033}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conferencia,Seminario,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005F00AB-004C-405D-A49C-00A600540024}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005D0007-00DC-4A27-ACBE-004B0067002B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conceptual,Procedimental,Actitudinal"</xm:f>
           </x14:formula1>
           <xm:sqref>E34 E36 E41 E46 E48 E50 E52</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D30079-00AC-4241-9979-0095009200FB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00670082-006D-4892-8AAE-001300970073}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Fe cristiana,Proyección social,Emprendimiento e innovación,Investigación,Medio ambiente,Tecnología de la información y comunicación,Cultura de paz,Interculturalidad,Internacionalización,Competencias para la vida"</xm:f>
           </x14:formula1>
           <xm:sqref>N34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D00096-00E1-4DA4-B0C7-009300560019}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00D40016-003A-46A1-9DAB-00EE003100AF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I Parcial,II Parcial,III Parcial"</xm:f>
           </x14:formula1>
           <xm:sqref>L34 M46 M48 M50 M52</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0015007B-00AB-46F1-BE20-002D008300DF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008400FC-005C-4559-AC11-006E004A0085}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Orientación del estudio independiente,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H42</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006900BB-007E-406E-B0E4-00D3002100FF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00970048-00F2-4423-913D-00EB004700C3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I:,II:,III:,IV:,V:,VI:"</xm:f>
           </x14:formula1>
           <xm:sqref>C35:C36 C41 C46 C48 C50 C52</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00160025-0083-49FD-B323-000900510010}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00780083-003D-4DC9-BACE-00BB005B008A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Acumulado 1,Acumulado 2,Acumulado 3,Acumulado 4,Examen"</xm:f>
           </x14:formula1>
           <xm:sqref>L35 M47 M49 M51 M53</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0079004E-0014-4099-BA1D-007E00B800D9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{003100E4-00FE-4CAC-A1FD-00E80071006E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Rúbrica,Lista de cotejo,Prueba oral,Prueba escrita,Registro anecdótico,Diario de trabajo,Portafolio,Cuaderno del estudiante,Organizador gráfico,Guía de estudio,Otros"</xm:f>
           </x14:formula1>
           <xm:sqref>L40 H46 H48 H50 H52</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0026009E-00D7-4227-BBC6-005C007B0098}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00710026-0033-4FAE-B62C-003700520048}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Clases teóricas,Clases prácticas"</xm:f>
           </x14:formula1>
           <xm:sqref>H60 H62</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000000D0-003E-4DF0-8F38-0083007100F8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008D0035-00A3-4E03-92D8-005B0011007B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Evaluación diagnóstica,Presentación de asignatura,Presentación del grupo,Valoración del trabajo independiente,Realimentación del aprendizaje,Autoevaluación,Coevaluación"</xm:f>
           </x14:formula1>
           <xm:sqref>H58</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003600A3-0077-475C-8260-005200D9008F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{009D0040-002D-4C2E-A59C-00A900F100FF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Laboratorio,Taller,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H63</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CE0042-0001-4C36-AEC3-00B300220030}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{006F007B-0090-4126-9001-00AC0028009E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conferencia,Seminario,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H61</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006E00CA-00F6-4C75-AE1D-0057009E007D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00610001-0036-43E6-8A13-001000B300E2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conceptual,Procedimental,Actitudinal"</xm:f>
           </x14:formula1>
           <xm:sqref>E57 E59 E64 E69 E71 E73 E75</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001B0058-00A4-488C-BF47-00D4004D0067}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00FF00D8-0035-4D00-8B66-0000005D0047}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Fe cristiana,Proyección social,Emprendimiento e innovación,Investigación,Medio ambiente,Tecnología de la información y comunicación,Cultura de paz,Interculturalidad,Internacionalización,Competencias para la vida"</xm:f>
           </x14:formula1>
           <xm:sqref>N57</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00520010-004C-4822-AC02-00A800AA007E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004D00F2-0007-4CAF-95CA-00C700820026}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I Parcial,II Parcial,III Parcial"</xm:f>
           </x14:formula1>
           <xm:sqref>L57 M69 M71 M73 M75</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00420073-005E-47C5-9AE6-001B00C4006E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{001100C5-0013-4E2F-A5CB-0098009E002F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Orientación del estudio independiente,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002800E0-00B1-48C0-BD13-00E600CA00FC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0053000E-00A3-4F0C-BF69-00A200D500C6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I:,II:,III:,IV:,V:,VI:"</xm:f>
           </x14:formula1>
           <xm:sqref>C58:C59 C64 C69 C71 C73 C75</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D700A6-00D7-4B59-A3BD-007F00B400FE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{006A0000-0077-4A44-B580-009E000E0000}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Acumulado 1,Acumulado 2,Acumulado 3,Acumulado 4,Examen"</xm:f>
           </x14:formula1>
           <xm:sqref>L58 M70 M72 M74 M76</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000800F6-00C2-499A-A187-00B1004E0082}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00FF00F5-00B1-48CF-B530-00BF00C800F9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Rúbrica,Lista de cotejo,Prueba oral,Prueba escrita,Registro anecdótico,Diario de trabajo,Portafolio,Cuaderno del estudiante,Organizador gráfico,Guía de estudio,Otros"</xm:f>
           </x14:formula1>
           <xm:sqref>L63 H69 H71 H73 H75</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006C008E-0020-4D6F-8226-00AD00110086}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00670090-001A-4CA1-B55D-0055008D0050}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Clases teóricas,Clases prácticas"</xm:f>
           </x14:formula1>
           <xm:sqref>H83 H85</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002400D3-00BE-4525-AFBE-00DE007400EA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00D6004F-0023-40D6-917D-0014003200EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Evaluación diagnóstica,Presentación de asignatura,Presentación del grupo,Valoración del trabajo independiente,Realimentación del aprendizaje,Autoevaluación,Coevaluación"</xm:f>
           </x14:formula1>
           <xm:sqref>H81</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00AC00A2-0054-452A-AEFA-00AE00520072}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005D00E0-00D8-4B64-A341-00D700ED0031}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Laboratorio,Taller,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H86</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009C0046-0046-4716-B50C-0050005400A3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00A1006E-00FB-4C51-A9CC-0005009F00A0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conferencia,Seminario,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H84</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FD0033-0075-4F13-BEA8-00E700F30057}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00CD0091-00B0-4DDD-8579-002000C30088}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conceptual,Procedimental,Actitudinal"</xm:f>
           </x14:formula1>
           <xm:sqref>E80 E82 E87 E92 E94 E96 E98</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00410033-007B-44CF-BD07-00A8001100EA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00FA008F-0017-4EC8-8B2F-00C800A500E3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Fe cristiana,Proyección social,Emprendimiento e innovación,Investigación,Medio ambiente,Tecnología de la información y comunicación,Cultura de paz,Interculturalidad,Internacionalización,Competencias para la vida"</xm:f>
           </x14:formula1>
           <xm:sqref>N80</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D900A4-00AF-4436-AD1E-000D00E200CE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00DF00C7-004F-443F-B179-006F00670005}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I Parcial,II Parcial,III Parcial"</xm:f>
           </x14:formula1>
           <xm:sqref>L80 M92 M94 M96 M98</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009100B5-005D-413A-8E95-001700F40003}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005000E1-00BD-4EC7-96FB-004E00CC00EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Orientación del estudio independiente,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H88</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FC0060-008B-4E12-8DF7-0058009D0050}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0094002B-000A-40B1-8829-007900010080}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I:,II:,III:,IV:,V:,VI:"</xm:f>
           </x14:formula1>
           <xm:sqref>C81:C82 C87 C92 C94 C96 C98</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005200AD-003F-4C84-8636-000C0009009C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00100072-00DD-460B-B26B-004D00F300B0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Acumulado 1,Acumulado 2,Acumulado 3,Acumulado 4,Examen"</xm:f>
           </x14:formula1>
           <xm:sqref>L81 M93 M95 M97 M99</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006D0031-00EE-4E69-A450-004A00BA0021}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00200062-0040-4131-A899-007900E20044}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Rúbrica,Lista de cotejo,Prueba oral,Prueba escrita,Registro anecdótico,Diario de trabajo,Portafolio,Cuaderno del estudiante,Organizador gráfico,Guía de estudio,Otros"</xm:f>
           </x14:formula1>
           <xm:sqref>L86 H92 H94 H96 H98</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F500AE-003C-41A5-80BC-0086004800E2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00EE0024-0041-4E6D-8002-006000B0000D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Clases teóricas,Clases prácticas"</xm:f>
           </x14:formula1>
           <xm:sqref>H106 H108</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002E00E8-00B9-4D92-999C-0058000600D9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00580088-0077-44A8-A22A-004C009E0042}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Evaluación diagnóstica,Presentación de asignatura,Presentación del grupo,Valoración del trabajo independiente,Realimentación del aprendizaje,Autoevaluación,Coevaluación"</xm:f>
           </x14:formula1>
           <xm:sqref>H104</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00550099-0047-4233-949D-009A00F400C2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00F70085-0043-4CB3-855B-00D100D6006A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Laboratorio,Taller,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H109</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B400D7-00DE-41D2-BA64-00AD00E30001}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004C0077-00DC-4D3F-931E-007A00FF0025}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conferencia,Seminario,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H107</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007300C2-007F-4A9A-ADFD-00D1005E0027}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005C00E8-0045-4919-90BA-002100D8008C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conceptual,Procedimental,Actitudinal"</xm:f>
           </x14:formula1>
           <xm:sqref>E103 E105 E110 E115 E117 E119 E121</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00950046-0046-46D3-A743-005E001A0085}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{001500E4-00D8-43AB-964B-0050003400E3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Fe cristiana,Proyección social,Emprendimiento e innovación,Investigación,Medio ambiente,Tecnología de la información y comunicación,Cultura de paz,Interculturalidad,Internacionalización,Competencias para la vida"</xm:f>
           </x14:formula1>
           <xm:sqref>N103</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002800C3-0075-4F27-BA76-00DC00E0003A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{001E0058-0010-4DF9-8AC0-008B00B500AE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I Parcial,II Parcial,III Parcial"</xm:f>
           </x14:formula1>
           <xm:sqref>L103 M115 M117 M119 M121</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007500DF-006A-4C4E-9867-009200700058}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{003B009B-00ED-4CAE-9CAD-007500D2000F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Orientación del estudio independiente,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H111</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B400D5-0004-4C2F-BA37-004200B000C8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00E5003A-001D-4A02-BB9F-003500BC00C5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I:,II:,III:,IV:,V:,VI:"</xm:f>
           </x14:formula1>
           <xm:sqref>C104:C105 C110 C115 C117 C119 C121</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B40087-0012-487A-974B-00CC0033001E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00110011-0056-4863-8923-0071008A0051}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Acumulado 1,Acumulado 2,Acumulado 3,Acumulado 4,Examen"</xm:f>
           </x14:formula1>
           <xm:sqref>L104 M116 M118 M120 M122</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00310041-00E5-45D8-93F2-0022006300F2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00BC0023-00CB-45AD-985A-0073009C000B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Rúbrica,Lista de cotejo,Prueba oral,Prueba escrita,Registro anecdótico,Diario de trabajo,Portafolio,Cuaderno del estudiante,Organizador gráfico,Guía de estudio,Otros"</xm:f>
           </x14:formula1>
           <xm:sqref>L109 H115 H117 H119 H121</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00050019-003A-493D-AB22-005B00D30055}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004A0087-00A7-4C85-A03C-000B0098009E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Clases teóricas,Clases prácticas"</xm:f>
           </x14:formula1>
           <xm:sqref>H129 H131</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007E00CE-003C-4E5F-850D-0067005B00EA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002A004B-0063-45D9-BD1F-002900BC0063}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Evaluación diagnóstica,Presentación de asignatura,Presentación del grupo,Valoración del trabajo independiente,Realimentación del aprendizaje,Autoevaluación,Coevaluación"</xm:f>
           </x14:formula1>
           <xm:sqref>H127</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009E009E-00F7-4AAC-85D9-0070009A0070}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{001E0062-0038-4012-B871-002600BC00EE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Laboratorio,Taller,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H132</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FC0064-00F8-4CA6-A66B-00B700C1005B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{003F003E-0045-4EA1-8787-002200D500D4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conferencia,Seminario,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H130</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E5000E-00B9-4EFA-AFE0-00A000C000CB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005400AE-0013-41F0-B6BF-008B004900DE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conceptual,Procedimental,Actitudinal"</xm:f>
           </x14:formula1>
           <xm:sqref>E126 E128 E133 E138 E140 E142 E144</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002200F2-00CC-4EB2-8551-00FE00760015}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002800D3-0004-493A-871A-00B900D700CF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Fe cristiana,Proyección social,Emprendimiento e innovación,Investigación,Medio ambiente,Tecnología de la información y comunicación,Cultura de paz,Interculturalidad,Internacionalización,Competencias para la vida"</xm:f>
           </x14:formula1>
           <xm:sqref>N126</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B500B0-00AB-4B5A-ADF4-000C00620066}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{000600F1-00DC-4632-995A-007900FA00C1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I Parcial,II Parcial,III Parcial"</xm:f>
           </x14:formula1>
           <xm:sqref>L126 M138 M140 M142 M144</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002B000E-004D-465F-9282-00E80067006C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00370091-00C6-4559-B755-0088001400B1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Orientación del estudio independiente,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H134</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007D00EC-0042-4A68-8713-003400AE000D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00FF0054-0049-4630-9363-009B001D000F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I:,II:,III:,IV:,V:,VI:"</xm:f>
           </x14:formula1>
           <xm:sqref>C127:C128 C133 C138 C140 C142 C144</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001E008D-00E4-40B7-94E9-00F100EB00B8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00D30083-007C-4012-96E3-00A8000D0020}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Acumulado 1,Acumulado 2,Acumulado 3,Acumulado 4,Examen"</xm:f>
           </x14:formula1>
           <xm:sqref>L127 M139 M141 M143 M145</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B10055-00E1-4745-9646-0030009A0046}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008A00AE-0098-44D8-8D4B-00A600FC0076}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Rúbrica,Lista de cotejo,Prueba oral,Prueba escrita,Registro anecdótico,Diario de trabajo,Portafolio,Cuaderno del estudiante,Organizador gráfico,Guía de estudio,Otros"</xm:f>
           </x14:formula1>
           <xm:sqref>L132 H138 H140 H142 H144</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009800D3-00D2-468B-83C3-00C3003E0048}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{000C003D-006E-46FC-8B8C-00DC003600AC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Clases teóricas,Clases prácticas"</xm:f>
           </x14:formula1>
           <xm:sqref>H152 H154</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00020065-008C-4B49-AD14-009F00070080}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004100BA-0060-4A21-B959-000C00D8008B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Evaluación diagnóstica,Presentación de asignatura,Presentación del grupo,Valoración del trabajo independiente,Realimentación del aprendizaje,Autoevaluación,Coevaluación"</xm:f>
           </x14:formula1>
           <xm:sqref>H150</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0081004C-00FA-4D3B-AB7D-006D00570077}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00550052-001E-4ADF-A48A-009B0063006D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Laboratorio,Taller,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H155</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A6008A-0077-4D5E-8DCF-0022007D0094}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{003D007D-00AB-4891-9338-00FD00F9001B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conferencia,Seminario,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H153</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A000D8-0021-4E20-A379-004E004E00B5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005300EA-007F-44C8-966E-0042005A00E2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conceptual,Procedimental,Actitudinal"</xm:f>
           </x14:formula1>
           <xm:sqref>E149 E151 E156 E161 E163 E165 E167</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007B0074-00EE-4904-AD65-008900780028}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00C400B9-00C8-4556-AE12-000E00F60057}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Fe cristiana,Proyección social,Emprendimiento e innovación,Investigación,Medio ambiente,Tecnología de la información y comunicación,Cultura de paz,Interculturalidad,Internacionalización,Competencias para la vida"</xm:f>
           </x14:formula1>
           <xm:sqref>N149</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00700002-00F6-4EDB-AFA8-00A900E10045}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008E005F-0096-4573-BFFC-00430055002B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I Parcial,II Parcial,III Parcial"</xm:f>
           </x14:formula1>
           <xm:sqref>L149 M161 M163 M165 M167</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00510077-00D4-409B-99B6-004900240073}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00EA005D-00FF-4F08-BFBA-0082005C008F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Orientación del estudio independiente,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H157</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001000E2-006A-45E7-B95F-009100C60022}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00760074-00B3-4E1F-B70E-00C8009F0059}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I:,II:,III:,IV:,V:,VI:"</xm:f>
           </x14:formula1>
           <xm:sqref>C150:C151 C156 C161 C163 C165 C167</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009F0061-00F6-425A-B090-0082006B00E2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{007600C4-00A8-4D4B-93A4-00EF008200A9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Acumulado 1,Acumulado 2,Acumulado 3,Acumulado 4,Examen"</xm:f>
           </x14:formula1>
           <xm:sqref>L150 M162 M164 M166 M168</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00730022-0022-4B00-AD13-0020000A00D7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002C00FF-00E0-469D-B513-0081000700FD}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Rúbrica,Lista de cotejo,Prueba oral,Prueba escrita,Registro anecdótico,Diario de trabajo,Portafolio,Cuaderno del estudiante,Organizador gráfico,Guía de estudio,Otros"</xm:f>
           </x14:formula1>
           <xm:sqref>L155 H161 H163 H165 H167</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00620032-00BC-4240-8BA5-0044006C0046}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00DA002F-00A9-4A81-8729-004C0081003D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Clases teóricas,Clases prácticas"</xm:f>
           </x14:formula1>
           <xm:sqref>H175 H177</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00100079-0086-452E-ACAE-00A400C40082}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005400DE-0070-4DAA-A561-00FC00F70049}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Evaluación diagnóstica,Presentación de asignatura,Presentación del grupo,Valoración del trabajo independiente,Realimentación del aprendizaje,Autoevaluación,Coevaluación"</xm:f>
           </x14:formula1>
           <xm:sqref>H173</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C800EB-0057-4AF1-99AA-00F600FB00F2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{007300B4-0018-4D76-8717-005400CD00F3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Laboratorio,Taller,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H178</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007300D5-009D-422D-9B78-007B000B0061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005300E9-00E4-4A16-8506-00E40035001F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conferencia,Seminario,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H176</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005800AB-0087-4CD6-AE81-0055001A0009}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002800C1-00C7-4FDF-A179-009800360065}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conceptual,Procedimental,Actitudinal"</xm:f>
           </x14:formula1>
           <xm:sqref>E172 E174 E179 E184 E186 E188 E190</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C80089-003B-47D6-9853-00C1004F004B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002000BD-006F-412D-81EB-009000BD00BE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Fe cristiana,Proyección social,Emprendimiento e innovación,Investigación,Medio ambiente,Tecnología de la información y comunicación,Cultura de paz,Interculturalidad,Internacionalización,Competencias para la vida"</xm:f>
           </x14:formula1>
           <xm:sqref>N172</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003800F0-00FF-48D6-9645-0014007F0036}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00480026-0013-4229-874B-005E0011003C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I Parcial,II Parcial,III Parcial"</xm:f>
           </x14:formula1>
           <xm:sqref>L172 M184 M186 M188 M190</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001200AC-006F-4509-A423-009A006B000B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005400B1-00EF-4EEE-829F-0005000A0048}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Orientación del estudio independiente,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H180</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D400B7-0007-4C88-A081-005C00010089}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00CF002D-00FB-4310-A79B-003A00490025}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I:,II:,III:,IV:,V:,VI:"</xm:f>
           </x14:formula1>
           <xm:sqref>C173:C174 C179 C184 C186 C188 C190</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00EA00F5-00D7-42B4-94AB-004D00790057}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00690006-00F5-422C-AD37-003800BD00B8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Acumulado 1,Acumulado 2,Acumulado 3,Acumulado 4,Examen"</xm:f>
           </x14:formula1>
           <xm:sqref>L173 M185 M187 M189 M191</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00130065-0003-4708-B9E5-001200090056}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00C00077-0041-4278-8892-001B00650006}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Rúbrica,Lista de cotejo,Prueba oral,Prueba escrita,Registro anecdótico,Diario de trabajo,Portafolio,Cuaderno del estudiante,Organizador gráfico,Guía de estudio,Otros"</xm:f>
           </x14:formula1>
           <xm:sqref>L178 H184 H186 H188 H190</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F8008A-00F8-446E-8B2F-004C00FF006E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0091008E-00D0-426C-A65E-001F007D004C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Clases teóricas,Clases prácticas"</xm:f>
           </x14:formula1>
           <xm:sqref>H198 H200</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00440055-000F-49ED-9787-005700E600F9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{007D00F9-00C2-43C4-B103-009500C9001A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Evaluación diagnóstica,Presentación de asignatura,Presentación del grupo,Valoración del trabajo independiente,Realimentación del aprendizaje,Autoevaluación,Coevaluación"</xm:f>
           </x14:formula1>
           <xm:sqref>H196</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D00026-0066-447A-B078-007100A30088}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002C0015-0069-4026-A2F6-006300310080}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Laboratorio,Taller,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H201</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00AA008B-0062-433C-ACE0-00FD0039006F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00BE0007-00D3-4572-AEBB-005B003100CE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conferencia,Seminario,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H199</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C800C8-00AC-48CF-842C-002200D70061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0010004D-0087-4DF6-931A-00F900260050}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conceptual,Procedimental,Actitudinal"</xm:f>
           </x14:formula1>
           <xm:sqref>E195 E197 E202 E207 E209 E211 E213</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B600C4-009F-4E2E-8E87-004A001F0092}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00250092-0034-44A5-ACF3-003B00E20050}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Fe cristiana,Proyección social,Emprendimiento e innovación,Investigación,Medio ambiente,Tecnología de la información y comunicación,Cultura de paz,Interculturalidad,Internacionalización,Competencias para la vida"</xm:f>
           </x14:formula1>
           <xm:sqref>N195</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000B008D-0019-4C9C-99D3-00F200350042}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002D00B9-00E7-435E-A026-00D100F50066}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I Parcial,II Parcial,III Parcial"</xm:f>
           </x14:formula1>
           <xm:sqref>L195 M207 M209 M211 M213</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004E0038-000F-4CED-A312-0083008A0052}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00370049-007A-40E7-8557-007300140018}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Orientación del estudio independiente,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H203</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0098007E-00E6-4306-B578-001E005A00E6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{001A00A7-0040-4EC9-BA4A-00F3004200A0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I:,II:,III:,IV:,V:,VI:"</xm:f>
           </x14:formula1>
           <xm:sqref>C196:C197 C202 C207 C209 C211 C213</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00AA00EB-00DC-4C68-9948-001800C80006}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{007D00ED-00C1-4917-BE16-002F00E20023}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Acumulado 1,Acumulado 2,Acumulado 3,Acumulado 4,Examen"</xm:f>
           </x14:formula1>
           <xm:sqref>L196 M208 M210 M212 M214</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004800B9-00F4-42F6-AE56-006700DD0011}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00BD0041-00C2-4EA5-A316-000900BE00B6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Rúbrica,Lista de cotejo,Prueba oral,Prueba escrita,Registro anecdótico,Diario de trabajo,Portafolio,Cuaderno del estudiante,Organizador gráfico,Guía de estudio,Otros"</xm:f>
           </x14:formula1>
           <xm:sqref>L201 H207 H209 H211 H213</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003200BA-000F-4B4B-B011-00D6003C007E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00D000F6-0091-4B2F-9D5E-004800B500D7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Clases teóricas,Clases prácticas"</xm:f>
           </x14:formula1>
           <xm:sqref>H221 H223</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C50008-0066-4BBF-A886-00E800D80069}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{004D00B6-000E-4E2A-BA56-006700E900D3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Evaluación diagnóstica,Presentación de asignatura,Presentación del grupo,Valoración del trabajo independiente,Realimentación del aprendizaje,Autoevaluación,Coevaluación"</xm:f>
           </x14:formula1>
           <xm:sqref>H219</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000E0041-00E4-40FC-B06D-00F90020002F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005C0085-0002-41A6-8BEF-001500E500F1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Laboratorio,Taller,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H224</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001B0001-0074-4E9C-AADB-00BB00A800C2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00280023-00B2-4E51-9F33-0071008E00C0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conferencia,Seminario,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H222</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0050002E-0040-47E6-8CC2-008600D700B1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00CF0067-00DC-48FC-87D2-00E6006B0067}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conceptual,Procedimental,Actitudinal"</xm:f>
           </x14:formula1>
           <xm:sqref>E218 E220 E225 E230 E232 E234 E236</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00AC009D-00C8-417D-B218-00C000160019}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00CD003D-0022-42DC-ADE4-006C00CE00C6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Fe cristiana,Proyección social,Emprendimiento e innovación,Investigación,Medio ambiente,Tecnología de la información y comunicación,Cultura de paz,Interculturalidad,Internacionalización,Competencias para la vida"</xm:f>
           </x14:formula1>
           <xm:sqref>N218</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003D00F3-0084-477B-9919-0043009600E9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0014000B-005A-4E54-9B57-00D500520008}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I Parcial,II Parcial,III Parcial"</xm:f>
           </x14:formula1>
           <xm:sqref>L218 M230 M232 M234 M236</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D400E4-00F6-4723-A504-00F500AF002D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00960062-009E-452E-B161-007A007C00E9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Orientación del estudio independiente,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H226</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C40004-00FF-4EAB-B31D-00D1006B00CE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00EB00D5-0094-4725-8311-002D00480009}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I:,II:,III:,IV:,V:,VI:"</xm:f>
           </x14:formula1>
           <xm:sqref>C219:C220 C225 C230 C232 C234 C236</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0076003F-0039-448D-B9BA-009C00C40016}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{006C000C-0018-4164-B4AF-00DB00410062}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Acumulado 1,Acumulado 2,Acumulado 3,Acumulado 4,Examen"</xm:f>
           </x14:formula1>
           <xm:sqref>L219 M231 M233 M235 M237</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00330088-004F-4106-8309-005B008200D0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002500D2-0025-4D3C-9502-001A00E1006A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Rúbrica,Lista de cotejo,Prueba oral,Prueba escrita,Registro anecdótico,Diario de trabajo,Portafolio,Cuaderno del estudiante,Organizador gráfico,Guía de estudio,Otros"</xm:f>
           </x14:formula1>
           <xm:sqref>L224 H230 H232 H234 H236</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004200F6-00E1-4874-AA57-00FD007D00FE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00F40066-00C1-46EB-ACC9-005F004D00A1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Clases teóricas,Clases prácticas"</xm:f>
           </x14:formula1>
           <xm:sqref>H244 H246</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DC00BC-00FB-45C6-AF9E-00F600C7004C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00890019-00D0-4227-9E48-00FA00930009}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Evaluación diagnóstica,Presentación de asignatura,Presentación del grupo,Valoración del trabajo independiente,Realimentación del aprendizaje,Autoevaluación,Coevaluación"</xm:f>
           </x14:formula1>
           <xm:sqref>H242</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006200C2-00AE-4292-88BA-006F005900BF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{007600E1-00D3-4A0C-AB5A-00C700F40011}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Laboratorio,Taller,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H247</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006B006A-0035-476D-832C-00AD001E0030}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00C30016-0007-4621-ADE0-003400FC00B5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conferencia,Seminario,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H245</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00950069-0082-4E49-825D-008C006700B3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{003F0033-00F9-4B36-B81D-009300750054}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conceptual,Procedimental,Actitudinal"</xm:f>
           </x14:formula1>
           <xm:sqref>E241 E243 E248 E253 E255 E257 E259</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001A00EC-004A-415A-A39E-008D005F0049}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{000F003C-0087-40FE-BCD2-006E002E008C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Fe cristiana,Proyección social,Emprendimiento e innovación,Investigación,Medio ambiente,Tecnología de la información y comunicación,Cultura de paz,Interculturalidad,Internacionalización,Competencias para la vida"</xm:f>
           </x14:formula1>
           <xm:sqref>N241</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003B0098-0029-420A-ACF2-0066005C00A3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008C00FF-0066-47D7-94AB-00850003007C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I Parcial,II Parcial,III Parcial"</xm:f>
           </x14:formula1>
           <xm:sqref>L241 M253 M255 M257 M259</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002E001F-00DC-447B-91BC-007200450047}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008E0047-0093-463A-B8CF-007D00330062}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Orientación del estudio independiente,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H249</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00770022-00BE-4E2E-B334-005500AB0044}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005F007D-0001-44D3-B386-00CD00DA0008}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I:,II:,III:,IV:,V:,VI:"</xm:f>
           </x14:formula1>
           <xm:sqref>C242:C243 C248 C253 C255 C257 C259</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009D0092-0074-4DFA-8CB0-008700B0001D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00EF003C-004E-4A73-A5EF-001200EB002F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Acumulado 1,Acumulado 2,Acumulado 3,Acumulado 4,Examen"</xm:f>
           </x14:formula1>
           <xm:sqref>L242 M254 M256 M258 M260</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00680015-006A-4F21-A0FB-00D200F800D0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008A00B4-0076-4C28-8838-007700C10051}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Rúbrica,Lista de cotejo,Prueba oral,Prueba escrita,Registro anecdótico,Diario de trabajo,Portafolio,Cuaderno del estudiante,Organizador gráfico,Guía de estudio,Otros"</xm:f>
           </x14:formula1>
           <xm:sqref>L247 H253 H255 H257 H259</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A80059-003B-4B64-AC75-001C008700B0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00CC0073-0055-41C4-85CB-000E003100AA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Clases teóricas,Clases prácticas"</xm:f>
           </x14:formula1>
           <xm:sqref>H267 H269</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0089008C-0057-4F6C-9440-003500AE00E7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00700061-0088-4C41-ABB6-000A0040002F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Evaluación diagnóstica,Presentación de asignatura,Presentación del grupo,Valoración del trabajo independiente,Realimentación del aprendizaje,Autoevaluación,Coevaluación"</xm:f>
           </x14:formula1>
           <xm:sqref>H265</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0058009E-0093-4788-8CA9-000100140007}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{001300D5-00DA-4BC1-A4D4-009D00730073}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Laboratorio,Taller,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H270</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008B0016-0048-4DDB-AD2A-00320071008C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{006D004E-00F0-4FC3-858E-003B004D009B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conferencia,Seminario,Evaluación formativa,Autoevaluación,Coevaluación,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H268</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005500DB-000F-426E-998C-00B6003200CF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00E100B2-00C5-4FB2-955A-0052005C0021}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Conceptual,Procedimental,Actitudinal"</xm:f>
           </x14:formula1>
           <xm:sqref>E264 E266 E271 E276 E278 E280 E282</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006F00B3-00F6-4568-992A-006A001000BD}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00B800B7-0045-4B45-87D1-00E400BD0005}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Fe cristiana,Proyección social,Emprendimiento e innovación,Investigación,Medio ambiente,Tecnología de la información y comunicación,Cultura de paz,Interculturalidad,Internacionalización,Competencias para la vida"</xm:f>
           </x14:formula1>
           <xm:sqref>N264</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D400EA-000F-4848-A537-007100B4000A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00CA008D-0074-452F-8E4C-009F005500B9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I Parcial,II Parcial,III Parcial"</xm:f>
           </x14:formula1>
           <xm:sqref>L264 M276 M278 M280 M282</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003400E7-0097-4F65-880F-0081001D0080}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00DA00F2-00DC-43B9-8F48-008E00C900C1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Orientación del estudio independiente,Realimentación del aprendizaje"</xm:f>
           </x14:formula1>
           <xm:sqref>H272</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006B008D-0043-44AD-9BA5-0068009E00CA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{000F00CC-0073-4309-9CC8-00C000440038}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"I:,II:,III:,IV:,V:,VI:"</xm:f>
           </x14:formula1>
           <xm:sqref>C265:C266 C271 C276 C278 C280 C282</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F8002B-0047-4BED-B63B-009400F70054}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00AE002D-000D-43F5-9F3F-005600B00030}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Acumulado 1,Acumulado 2,Acumulado 3,Acumulado 4,Examen"</xm:f>
           </x14:formula1>
           <xm:sqref>L265 M277 M279 M281 M283</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002C0018-0075-43AC-AF14-008A009C00FC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0002005C-00B6-4F41-A4B5-002900CC0062}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"Rúbrica,Lista de cotejo,Prueba oral,Prueba escrita,Registro anecdótico,Diario de trabajo,Portafolio,Cuaderno del estudiante,Organizador gráfico,Guía de estudio,Otros"</xm:f>
           </x14:formula1>
@@ -12080,17 +12038,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="133" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="134" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="150"/>
+      <c r="A4" s="135"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -12100,265 +12058,265 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="137" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="150">
+      <c r="A6" s="135">
         <v>1</v>
       </c>
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="153">
+      <c r="C6" s="138">
         <f>'Sílabo'!A12</f>
         <v>1</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="154">
+      <c r="D6" s="138"/>
+      <c r="E6" s="139">
         <v>7</v>
       </c>
-      <c r="F6" s="150" t="s">
+      <c r="F6" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="155" t="str">
+      <c r="G6" s="140" t="str">
         <f>'Sílabo'!I5</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="150">
+      <c r="A7" s="135">
         <v>2</v>
       </c>
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="156">
+      <c r="C7" s="141">
         <f>'Sílabo'!B12</f>
         <v>45554</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="154">
+      <c r="D7" s="138"/>
+      <c r="E7" s="139">
         <v>8</v>
       </c>
-      <c r="F7" s="150" t="s">
+      <c r="F7" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="157" t="str">
+      <c r="G7" s="142" t="str">
         <f>'Sílabo'!J5</f>
         <v>T1805</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="150">
+      <c r="A8" s="135">
         <v>3</v>
       </c>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="153" t="str">
+      <c r="C8" s="138" t="str">
         <f>'Sílabo'!G3</f>
         <v xml:space="preserve">Sede Jalapa</v>
       </c>
-      <c r="D8" s="153"/>
-      <c r="E8" s="154">
+      <c r="D8" s="138"/>
+      <c r="E8" s="139">
         <v>9</v>
       </c>
-      <c r="F8" s="150" t="s">
+      <c r="F8" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="157" t="str">
+      <c r="G8" s="142" t="str">
         <f>'Sílabo'!M5</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="150">
+      <c r="A9" s="135">
         <v>4</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="153">
+      <c r="C9" s="138">
         <f>'Sílabo'!D5</f>
         <v>0</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154">
+      <c r="D9" s="138"/>
+      <c r="E9" s="139">
         <v>10</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="F9" s="135" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="153">
+      <c r="G9" s="138">
         <f>'Sílabo'!J3</f>
         <v>2024</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="150">
+      <c r="A10" s="135">
         <v>5</v>
       </c>
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="153" t="str">
+      <c r="C10" s="138" t="str">
         <f>'Sílabo'!L5</f>
         <v>#REF!</v>
       </c>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
     </row>
     <row r="11">
-      <c r="A11" s="150">
+      <c r="A11" s="135">
         <v>6</v>
       </c>
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="153">
+      <c r="C11" s="138">
         <f>'Sílabo'!C7</f>
         <v>0</v>
       </c>
-      <c r="D11" s="158">
+      <c r="D11" s="143">
         <f>'Sílabo'!D7</f>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="151" t="s">
+      <c r="A13" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="159" t="s">
+      <c r="B13" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="160" t="s">
+      <c r="C13" s="145" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="161"/>
-      <c r="B14" s="162">
+      <c r="A14" s="146"/>
+      <c r="B14" s="147">
         <f>'Sílabo'!C12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="163" t="str">
+      <c r="C14" s="148" t="str">
         <f>'Sílabo'!D11</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="162">
+      <c r="B15" s="147">
         <f>Sílabo!C13</f>
         <v>0</v>
       </c>
-      <c r="C15" s="163">
+      <c r="C15" s="148">
         <f>'Sílabo'!D13</f>
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="162">
+      <c r="B16" s="147">
         <f>'Sílabo'!C18</f>
         <v>0</v>
       </c>
-      <c r="C16" s="163">
+      <c r="C16" s="148">
         <f>'Sílabo'!D18</f>
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="161"/>
-      <c r="B18" s="164" t="s">
+      <c r="A18" s="146"/>
+      <c r="B18" s="149" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="165" t="str">
+      <c r="B19" s="150" t="str">
         <f>'Sílabo'!E11</f>
         <v>Conceptual</v>
       </c>
-      <c r="C19" s="155">
+      <c r="C19" s="140">
         <f>'Sílabo'!F11</f>
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="165" t="str">
+      <c r="B20" s="150" t="str">
         <f>'Sílabo'!E13</f>
         <v>Procedimental</v>
       </c>
-      <c r="C20" s="166">
+      <c r="C20" s="151">
         <f>'Sílabo'!F13</f>
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="165" t="str">
+      <c r="B21" s="150" t="str">
         <f>'Sílabo'!E18</f>
         <v>Actitudinal</v>
       </c>
-      <c r="C21" s="166">
+      <c r="C21" s="151">
         <f>'Sílabo'!F18</f>
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="152" t="s">
+      <c r="B23" s="152"/>
+      <c r="C23" s="137" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="168" t="s">
+      <c r="B24" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="168" t="s">
+      <c r="C24" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="169"/>
+      <c r="D24" s="154"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="170" t="s">
+      <c r="F24" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="170" t="s">
+      <c r="G24" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="170" t="s">
+      <c r="H24" s="155" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="15"/>
-      <c r="C25" s="171" t="s">
+      <c r="C25" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="171" t="s">
+      <c r="D25" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="171" t="s">
+      <c r="E25" s="156" t="s">
         <v>87</v>
       </c>
       <c r="F25" s="48"/>
-      <c r="G25" s="172" t="str">
+      <c r="G25" s="157" t="str">
         <f>'Sílabo'!L11</f>
         <v xml:space="preserve">I Parcial</v>
       </c>
       <c r="H25" s="48"/>
     </row>
     <row r="26" ht="145.5" customHeight="1">
-      <c r="B26" s="173">
+      <c r="B26" s="158">
         <f>'Sílabo'!G11</f>
         <v>0</v>
       </c>
-      <c r="C26" s="174" t="str">
+      <c r="C26" s="159" t="str">
         <f>'Sílabo'!H11</f>
         <v xml:space="preserve">Primer momento</v>
       </c>
@@ -12378,21 +12336,21 @@
         <f>Sílabo!L12</f>
         <v xml:space="preserve">Acumulado 1</v>
       </c>
-      <c r="H26" s="175">
+      <c r="H26" s="160">
         <f>'Sílabo'!J12</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" ht="51" customHeight="1">
-      <c r="B27" s="176">
+      <c r="B27" s="161">
         <f>'Sílabo'!G13</f>
         <v>0</v>
       </c>
-      <c r="C27" s="177" t="str">
+      <c r="C27" s="162" t="str">
         <f>'Sílabo'!H13</f>
         <v xml:space="preserve">Segundo momento</v>
       </c>
-      <c r="D27" s="178" t="str">
+      <c r="D27" s="163" t="str">
         <f>'Sílabo'!H14</f>
         <v xml:space="preserve">Clases teóricas</v>
       </c>
@@ -12401,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="67"/>
-      <c r="G27" s="177" t="str">
+      <c r="G27" s="162" t="str">
         <f>Sílabo!L13</f>
         <v>Puntaje</v>
       </c>
@@ -12411,9 +12369,9 @@
       </c>
     </row>
     <row r="28" ht="188.25" customHeight="1">
-      <c r="B28" s="179"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="67"/>
-      <c r="D28" s="180">
+      <c r="D28" s="165">
         <f>Sílabo!H15</f>
         <v>0</v>
       </c>
@@ -12426,9 +12384,9 @@
       <c r="H28" s="48"/>
     </row>
     <row r="29">
-      <c r="B29" s="179"/>
+      <c r="B29" s="164"/>
       <c r="C29" s="67"/>
-      <c r="D29" s="178" t="str">
+      <c r="D29" s="163" t="str">
         <f>Sílabo!H16</f>
         <v xml:space="preserve">Clases prácticas</v>
       </c>
@@ -12437,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="67"/>
-      <c r="G29" s="174" t="str">
+      <c r="G29" s="159" t="str">
         <f>'Sílabo'!L16</f>
         <v xml:space="preserve">Instrumento de evaluación</v>
       </c>
@@ -12449,7 +12407,7 @@
     <row r="30" ht="90.75" customHeight="1">
       <c r="B30" s="15"/>
       <c r="C30" s="48"/>
-      <c r="D30" s="180">
+      <c r="D30" s="165">
         <f>Sílabo!H17</f>
         <v>0</v>
       </c>
@@ -12462,11 +12420,11 @@
       <c r="H30" s="48"/>
     </row>
     <row r="31">
-      <c r="B31" s="181" t="str">
+      <c r="B31" s="166" t="str">
         <f>'Sílabo'!G18</f>
         <v/>
       </c>
-      <c r="C31" s="177" t="str">
+      <c r="C31" s="162" t="str">
         <f>'Sílabo'!H18</f>
         <v xml:space="preserve">Tercer momento</v>
       </c>
@@ -12479,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="67"/>
-      <c r="G31" s="177" t="str">
+      <c r="G31" s="162" t="str">
         <f>Sílabo!L18</f>
         <v xml:space="preserve">Estrategia de evaluación</v>
       </c>
@@ -12494,15 +12452,15 @@
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
-      <c r="G32" s="175">
+      <c r="G32" s="160">
         <f>Sílabo!L19</f>
         <v>0</v>
       </c>
       <c r="H32" s="48"/>
     </row>
     <row r="33">
-      <c r="A33" s="154"/>
-      <c r="B33" s="182" t="s">
+      <c r="A33" s="139"/>
+      <c r="B33" s="167" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="53"/>
@@ -12510,13 +12468,13 @@
       <c r="E33" s="53"/>
       <c r="F33" s="53"/>
       <c r="G33" s="45"/>
-      <c r="H33" s="183">
+      <c r="H33" s="168">
         <f>(H26+H27+H29+H31)/60</f>
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="161"/>
+      <c r="A34" s="146"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -12525,8 +12483,8 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35">
-      <c r="A35" s="161"/>
-      <c r="B35" s="184" t="s">
+      <c r="A35" s="146"/>
+      <c r="B35" s="169" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="53"/>
@@ -12537,8 +12495,8 @@
       <c r="H35" s="45"/>
     </row>
     <row r="36">
-      <c r="A36" s="161"/>
-      <c r="B36" s="185">
+      <c r="A36" s="146"/>
+      <c r="B36" s="170">
         <f>'Sílabo'!M12</f>
         <v>0</v>
       </c>
@@ -12550,7 +12508,7 @@
       <c r="H36" s="45"/>
     </row>
     <row r="37">
-      <c r="A37" s="161"/>
+      <c r="A37" s="146"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -12559,8 +12517,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38">
-      <c r="A38" s="161"/>
-      <c r="B38" s="184" t="s">
+      <c r="A38" s="146"/>
+      <c r="B38" s="169" t="s">
         <v>88</v>
       </c>
       <c r="C38" s="53"/>
@@ -12571,14 +12529,14 @@
       <c r="H38" s="45"/>
     </row>
     <row r="39">
-      <c r="A39" s="161"/>
-      <c r="B39" s="186">
+      <c r="A39" s="146"/>
+      <c r="B39" s="171">
         <f>'Sílabo'!N11</f>
         <v>0</v>
       </c>
       <c r="C39" s="53"/>
       <c r="D39" s="45"/>
-      <c r="E39" s="187">
+      <c r="E39" s="172">
         <f>'Sílabo'!N12</f>
         <v>0</v>
       </c>
@@ -12587,7 +12545,7 @@
       <c r="H39" s="45"/>
     </row>
     <row r="41">
-      <c r="A41" s="161" t="s">
+      <c r="A41" s="146" t="s">
         <v>89</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -12596,53 +12554,53 @@
     </row>
     <row r="42">
       <c r="A42" s="38"/>
-      <c r="B42" s="188" t="s">
+      <c r="B42" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="142">
         <f>'Sílabo'!A23</f>
         <v>1</v>
       </c>
-      <c r="D42" s="188" t="s">
+      <c r="D42" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="189">
+      <c r="E42" s="174">
         <f>'Sílabo'!B23</f>
         <v>45554</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="38"/>
-      <c r="B43" s="190"/>
+      <c r="B43" s="175"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="190"/>
-      <c r="H43" s="191"/>
+      <c r="F43" s="176"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="176"/>
     </row>
     <row r="44">
       <c r="A44" s="38"/>
-      <c r="B44" s="190"/>
+      <c r="B44" s="175"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="190"/>
-      <c r="H44" s="191"/>
+      <c r="F44" s="176"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="176"/>
     </row>
     <row r="45">
-      <c r="A45" s="192" t="s">
+      <c r="A45" s="177" t="s">
         <v>91</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="193" t="s">
+      <c r="C45" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="193" t="s">
+      <c r="D45" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="194" t="s">
+      <c r="E45" s="179" t="s">
         <v>92</v>
       </c>
       <c r="F45" s="53"/>
@@ -12650,41 +12608,41 @@
       <c r="H45" s="45"/>
     </row>
     <row r="46">
-      <c r="A46" s="195">
+      <c r="A46" s="180">
         <f>'Sílabo'!C23</f>
         <v>0</v>
       </c>
-      <c r="B46" s="196">
+      <c r="B46" s="181">
         <f>'Sílabo'!D23</f>
         <v>0</v>
       </c>
-      <c r="C46" s="197" t="str">
+      <c r="C46" s="182" t="str">
         <f>'Sílabo'!E23</f>
         <v>Procedimental</v>
       </c>
-      <c r="D46" s="198">
+      <c r="D46" s="183">
         <f>'Sílabo'!F23</f>
         <v>0</v>
       </c>
-      <c r="E46" s="174" t="s">
+      <c r="E46" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="174" t="s">
+      <c r="F46" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="G46" s="174" t="s">
+      <c r="G46" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="H46" s="174" t="s">
+      <c r="H46" s="159" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="179"/>
-      <c r="B47" s="199"/>
+      <c r="A47" s="164"/>
+      <c r="B47" s="184"/>
       <c r="C47" s="16"/>
       <c r="D47" s="67"/>
-      <c r="E47" s="198">
+      <c r="E47" s="183">
         <f>'Sílabo'!G23</f>
         <v>0</v>
       </c>
@@ -12692,67 +12650,67 @@
         <f>'Sílabo'!I23</f>
         <v>0</v>
       </c>
-      <c r="G47" s="175" t="str">
+      <c r="G47" s="160" t="str">
         <f>'Sílabo'!M23</f>
         <v xml:space="preserve">I Parcial</v>
       </c>
-      <c r="H47" s="200">
+      <c r="H47" s="185">
         <f>'Sílabo'!J23</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" ht="116.25" customHeight="1">
-      <c r="A48" s="179"/>
-      <c r="B48" s="199"/>
-      <c r="C48" s="201">
+      <c r="A48" s="164"/>
+      <c r="B48" s="184"/>
+      <c r="C48" s="186">
         <f>'Sílabo'!E24</f>
         <v>0</v>
       </c>
       <c r="D48" s="67"/>
       <c r="E48" s="48"/>
       <c r="F48" s="48"/>
-      <c r="G48" s="202">
+      <c r="G48" s="187">
         <f>Sílabo!M24</f>
         <v>0</v>
       </c>
       <c r="H48" s="48"/>
     </row>
     <row r="49" ht="29.25" customHeight="1">
-      <c r="A49" s="179"/>
-      <c r="B49" s="199"/>
-      <c r="C49" s="199"/>
+      <c r="A49" s="164"/>
+      <c r="B49" s="184"/>
+      <c r="C49" s="184"/>
       <c r="D49" s="67"/>
-      <c r="E49" s="203" t="s">
+      <c r="E49" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="F49" s="174" t="s">
+      <c r="F49" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="174" t="s">
+      <c r="G49" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="H49" s="174" t="s">
+      <c r="H49" s="159" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="179"/>
-      <c r="B50" s="199"/>
-      <c r="C50" s="199"/>
+      <c r="A50" s="164"/>
+      <c r="B50" s="184"/>
+      <c r="C50" s="184"/>
       <c r="D50" s="67"/>
-      <c r="E50" s="204" t="str">
+      <c r="E50" s="189" t="str">
         <f>'Sílabo'!H23</f>
         <v xml:space="preserve">Lista de cotejo</v>
       </c>
-      <c r="F50" s="205">
+      <c r="F50" s="190">
         <f>'Sílabo'!K23</f>
         <v>0</v>
       </c>
-      <c r="G50" s="206">
+      <c r="G50" s="191">
         <f>'Sílabo'!L23</f>
         <v>0</v>
       </c>
-      <c r="H50" s="207" t="str">
+      <c r="H50" s="192" t="str">
         <f>'Sílabo'!N23</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -12762,7 +12720,7 @@
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="48"/>
-      <c r="E51" s="208">
+      <c r="E51" s="193">
         <f>Sílabo!H24</f>
         <v>0</v>
       </c>
@@ -12771,112 +12729,112 @@
       <c r="H51" s="48"/>
     </row>
     <row r="52">
-      <c r="A52" s="209"/>
+      <c r="A52" s="194"/>
     </row>
     <row r="53">
-      <c r="A53" s="195">
+      <c r="A53" s="180">
         <f>'Sílabo'!C25</f>
         <v>0</v>
       </c>
-      <c r="B53" s="196">
+      <c r="B53" s="181">
         <f>'Sílabo'!D25</f>
         <v>0</v>
       </c>
-      <c r="C53" s="197" t="str">
+      <c r="C53" s="182" t="str">
         <f>'Sílabo'!E25</f>
         <v>Conceptual</v>
       </c>
-      <c r="D53" s="198">
+      <c r="D53" s="183">
         <f>'Sílabo'!F25</f>
         <v>0</v>
       </c>
-      <c r="E53" s="174" t="s">
+      <c r="E53" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="174" t="s">
+      <c r="F53" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="G53" s="174" t="s">
+      <c r="G53" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="H53" s="174" t="s">
+      <c r="H53" s="159" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="179"/>
-      <c r="B54" s="199"/>
+      <c r="A54" s="164"/>
+      <c r="B54" s="184"/>
       <c r="C54" s="16"/>
       <c r="D54" s="67"/>
-      <c r="E54" s="198">
+      <c r="E54" s="183">
         <f>'Sílabo'!G25</f>
         <v>0</v>
       </c>
-      <c r="F54" s="205">
+      <c r="F54" s="190">
         <f>'Sílabo'!I25</f>
         <v>0</v>
       </c>
-      <c r="G54" s="175" t="str">
+      <c r="G54" s="160" t="str">
         <f>'Sílabo'!M25</f>
         <v xml:space="preserve">I Parcial</v>
       </c>
-      <c r="H54" s="200">
+      <c r="H54" s="185">
         <f>'Sílabo'!J25</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" ht="129" customHeight="1">
-      <c r="A55" s="179"/>
-      <c r="B55" s="199"/>
-      <c r="C55" s="201">
+      <c r="A55" s="164"/>
+      <c r="B55" s="184"/>
+      <c r="C55" s="186">
         <f>'Sílabo'!E26</f>
         <v>0</v>
       </c>
       <c r="D55" s="67"/>
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
-      <c r="G55" s="202">
+      <c r="G55" s="187">
         <f>Sílabo!M26</f>
         <v>0</v>
       </c>
       <c r="H55" s="48"/>
     </row>
     <row r="56">
-      <c r="A56" s="179"/>
-      <c r="B56" s="199"/>
-      <c r="C56" s="199"/>
+      <c r="A56" s="164"/>
+      <c r="B56" s="184"/>
+      <c r="C56" s="184"/>
       <c r="D56" s="67"/>
-      <c r="E56" s="203" t="s">
+      <c r="E56" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="174" t="s">
+      <c r="F56" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="G56" s="174" t="s">
+      <c r="G56" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="H56" s="174" t="s">
+      <c r="H56" s="159" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="179"/>
-      <c r="B57" s="199"/>
-      <c r="C57" s="199"/>
+      <c r="A57" s="164"/>
+      <c r="B57" s="184"/>
+      <c r="C57" s="184"/>
       <c r="D57" s="67"/>
-      <c r="E57" s="204" t="str">
+      <c r="E57" s="189" t="str">
         <f>'Sílabo'!H25</f>
         <v xml:space="preserve">Organizador gráfico</v>
       </c>
-      <c r="F57" s="205">
+      <c r="F57" s="190">
         <f>'Sílabo'!K25</f>
         <v>0</v>
       </c>
-      <c r="G57" s="206">
+      <c r="G57" s="191">
         <f>'Sílabo'!L25</f>
         <v>0</v>
       </c>
-      <c r="H57" s="207">
+      <c r="H57" s="192">
         <f>'Sílabo'!N25</f>
         <v>0</v>
       </c>
@@ -12886,7 +12844,7 @@
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="48"/>
-      <c r="E58" s="208">
+      <c r="E58" s="193">
         <f>Sílabo!H26</f>
         <v>0</v>
       </c>
@@ -12895,44 +12853,44 @@
       <c r="H58" s="48"/>
     </row>
     <row r="59">
-      <c r="A59" s="209"/>
+      <c r="A59" s="194"/>
     </row>
     <row r="60">
-      <c r="A60" s="195">
+      <c r="A60" s="180">
         <f>'Sílabo'!C27</f>
         <v>0</v>
       </c>
-      <c r="B60" s="196">
+      <c r="B60" s="181">
         <f>'Sílabo'!D27</f>
         <v>0</v>
       </c>
-      <c r="C60" s="197" t="str">
+      <c r="C60" s="182" t="str">
         <f>'Sílabo'!E27</f>
         <v>Actitudinal</v>
       </c>
-      <c r="D60" s="198">
+      <c r="D60" s="183">
         <f>'Sílabo'!F27</f>
         <v>0</v>
       </c>
-      <c r="E60" s="174" t="s">
+      <c r="E60" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="174" t="s">
+      <c r="F60" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="G60" s="174" t="s">
+      <c r="G60" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="H60" s="174" t="s">
+      <c r="H60" s="159" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="179"/>
-      <c r="B61" s="199"/>
+      <c r="A61" s="164"/>
+      <c r="B61" s="184"/>
       <c r="C61" s="16"/>
       <c r="D61" s="67"/>
-      <c r="E61" s="198">
+      <c r="E61" s="183">
         <f>'Sílabo'!G27</f>
         <v>0</v>
       </c>
@@ -12940,67 +12898,67 @@
         <f>'Sílabo'!I27</f>
         <v>0</v>
       </c>
-      <c r="G61" s="175" t="str">
+      <c r="G61" s="160" t="str">
         <f>'Sílabo'!M27</f>
         <v xml:space="preserve">I Parcial</v>
       </c>
-      <c r="H61" s="200">
+      <c r="H61" s="185">
         <f>'Sílabo'!J27</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" ht="118.5" customHeight="1">
-      <c r="A62" s="179"/>
-      <c r="B62" s="199"/>
-      <c r="C62" s="201">
+      <c r="A62" s="164"/>
+      <c r="B62" s="184"/>
+      <c r="C62" s="186">
         <f>'Sílabo'!E28</f>
         <v>0</v>
       </c>
       <c r="D62" s="67"/>
       <c r="E62" s="48"/>
       <c r="F62" s="48"/>
-      <c r="G62" s="202">
+      <c r="G62" s="187">
         <f>Sílabo!M28</f>
         <v>0</v>
       </c>
       <c r="H62" s="48"/>
     </row>
     <row r="63">
-      <c r="A63" s="179"/>
-      <c r="B63" s="199"/>
-      <c r="C63" s="199"/>
+      <c r="A63" s="164"/>
+      <c r="B63" s="184"/>
+      <c r="C63" s="184"/>
       <c r="D63" s="67"/>
-      <c r="E63" s="203" t="s">
+      <c r="E63" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="F63" s="174" t="s">
+      <c r="F63" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="G63" s="174" t="s">
+      <c r="G63" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="H63" s="174" t="s">
+      <c r="H63" s="159" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="179"/>
-      <c r="B64" s="199"/>
-      <c r="C64" s="199"/>
+      <c r="A64" s="164"/>
+      <c r="B64" s="184"/>
+      <c r="C64" s="184"/>
       <c r="D64" s="67"/>
-      <c r="E64" s="204" t="str">
+      <c r="E64" s="189" t="str">
         <f>'Sílabo'!H27</f>
         <v xml:space="preserve">Diario de trabajo</v>
       </c>
-      <c r="F64" s="205">
+      <c r="F64" s="190">
         <f>'Sílabo'!K27</f>
         <v>0</v>
       </c>
-      <c r="G64" s="206">
+      <c r="G64" s="191">
         <f>'Sílabo'!L27</f>
         <v>0</v>
       </c>
-      <c r="H64" s="210">
+      <c r="H64" s="195">
         <f>'Sílabo'!N27</f>
         <v>0</v>
       </c>
@@ -13010,7 +12968,7 @@
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="48"/>
-      <c r="E65" s="208">
+      <c r="E65" s="193">
         <f>Sílabo!H28</f>
         <v>0</v>
       </c>
@@ -13022,109 +12980,109 @@
       <c r="A66" s="22"/>
     </row>
     <row r="67">
-      <c r="A67" s="181">
+      <c r="A67" s="166">
         <f>'Sílabo'!C29</f>
         <v>0</v>
       </c>
-      <c r="B67" s="196">
+      <c r="B67" s="181">
         <f>'Sílabo'!D29</f>
         <v>0</v>
       </c>
-      <c r="C67" s="201" t="str">
+      <c r="C67" s="186" t="str">
         <f>'Sílabo'!E29</f>
         <v>Conceptual</v>
       </c>
-      <c r="D67" s="198">
+      <c r="D67" s="183">
         <f>'Sílabo'!F29</f>
         <v>0</v>
       </c>
-      <c r="E67" s="174" t="s">
+      <c r="E67" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="F67" s="174" t="s">
+      <c r="F67" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="G67" s="174" t="s">
+      <c r="G67" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="H67" s="174" t="s">
+      <c r="H67" s="159" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="179"/>
-      <c r="B68" s="199"/>
+      <c r="A68" s="164"/>
+      <c r="B68" s="184"/>
       <c r="C68" s="16"/>
       <c r="D68" s="67"/>
-      <c r="E68" s="198">
+      <c r="E68" s="183">
         <f>'Sílabo'!G29</f>
         <v>0</v>
       </c>
-      <c r="F68" s="198">
+      <c r="F68" s="183">
         <f>'Sílabo'!I29</f>
         <v>0</v>
       </c>
-      <c r="G68" s="175" t="str">
+      <c r="G68" s="160" t="str">
         <f>'Sílabo'!M29</f>
         <v xml:space="preserve">I Parcial</v>
       </c>
-      <c r="H68" s="211">
+      <c r="H68" s="196">
         <f>'Sílabo'!J29</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" ht="88.5" customHeight="1">
-      <c r="A69" s="179"/>
-      <c r="B69" s="199"/>
-      <c r="C69" s="201">
+      <c r="A69" s="164"/>
+      <c r="B69" s="184"/>
+      <c r="C69" s="186">
         <f>'Sílabo'!E30</f>
         <v>0</v>
       </c>
       <c r="D69" s="67"/>
       <c r="E69" s="48"/>
       <c r="F69" s="48"/>
-      <c r="G69" s="202">
+      <c r="G69" s="187">
         <f>Sílabo!M30</f>
         <v>0</v>
       </c>
       <c r="H69" s="48"/>
     </row>
     <row r="70">
-      <c r="A70" s="179"/>
-      <c r="B70" s="199"/>
-      <c r="C70" s="199"/>
+      <c r="A70" s="164"/>
+      <c r="B70" s="184"/>
+      <c r="C70" s="184"/>
       <c r="D70" s="67"/>
-      <c r="E70" s="203" t="s">
+      <c r="E70" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="F70" s="174" t="s">
+      <c r="F70" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="G70" s="174" t="s">
+      <c r="G70" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="H70" s="174" t="s">
+      <c r="H70" s="159" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="179"/>
-      <c r="B71" s="199"/>
-      <c r="C71" s="199"/>
+      <c r="A71" s="164"/>
+      <c r="B71" s="184"/>
+      <c r="C71" s="184"/>
       <c r="D71" s="67"/>
-      <c r="E71" s="212" t="str">
+      <c r="E71" s="197" t="str">
         <f>'Sílabo'!H29</f>
         <v xml:space="preserve">Prueba escrita</v>
       </c>
-      <c r="F71" s="205">
+      <c r="F71" s="190">
         <f>'Sílabo'!K29</f>
         <v>0</v>
       </c>
-      <c r="G71" s="206">
+      <c r="G71" s="191">
         <f>'Sílabo'!L29</f>
         <v>0</v>
       </c>
-      <c r="H71" s="207">
+      <c r="H71" s="192">
         <f>'Sílabo'!N29</f>
         <v>0</v>
       </c>
@@ -13134,7 +13092,7 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="48"/>
-      <c r="E72" s="208">
+      <c r="E72" s="193">
         <f>Sílabo!H30</f>
         <v>0</v>
       </c>
@@ -13143,152 +13101,152 @@
       <c r="H72" s="48"/>
     </row>
     <row r="73">
-      <c r="A73" s="161"/>
+      <c r="A73" s="146"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
-      <c r="L73" s="213"/>
-      <c r="M73" s="213"/>
+      <c r="L73" s="198"/>
+      <c r="M73" s="198"/>
     </row>
     <row r="74">
-      <c r="A74" s="161"/>
-      <c r="B74" s="214" t="s">
+      <c r="A74" s="146"/>
+      <c r="B74" s="199" t="s">
         <v>19</v>
       </c>
       <c r="C74" s="45"/>
-      <c r="D74" s="215">
+      <c r="D74" s="200">
         <f>(H26+H27+H29+H31)/60</f>
         <v>0</v>
       </c>
-      <c r="E74" s="216"/>
-      <c r="F74" s="217" t="s">
+      <c r="E74" s="201"/>
+      <c r="F74" s="202" t="s">
         <v>93</v>
       </c>
       <c r="G74" s="45"/>
-      <c r="H74" s="218">
+      <c r="H74" s="203">
         <f>G28</f>
         <v>0</v>
       </c>
-      <c r="L74" s="213"/>
-      <c r="M74" s="213"/>
+      <c r="L74" s="198"/>
+      <c r="M74" s="198"/>
     </row>
     <row r="75">
-      <c r="A75" s="161"/>
-      <c r="B75" s="214" t="s">
+      <c r="A75" s="146"/>
+      <c r="B75" s="199" t="s">
         <v>94</v>
       </c>
       <c r="C75" s="45"/>
-      <c r="D75" s="215">
+      <c r="D75" s="200">
         <f>(H47+H54+H61+H68)/60</f>
         <v>0</v>
       </c>
-      <c r="E75" s="216"/>
-      <c r="F75" s="217" t="s">
+      <c r="E75" s="201"/>
+      <c r="F75" s="202" t="s">
         <v>95</v>
       </c>
       <c r="G75" s="45"/>
-      <c r="H75" s="218">
+      <c r="H75" s="203">
         <f>(G50+G57+G64+G71)</f>
         <v>0</v>
       </c>
-      <c r="L75" s="213"/>
-      <c r="M75" s="213"/>
+      <c r="L75" s="198"/>
+      <c r="M75" s="198"/>
     </row>
     <row r="76">
-      <c r="A76" s="161"/>
-      <c r="B76" s="219" t="s">
+      <c r="A76" s="146"/>
+      <c r="B76" s="204" t="s">
         <v>96</v>
       </c>
       <c r="C76" s="45"/>
-      <c r="D76" s="220">
+      <c r="D76" s="205">
         <f>SUM(D74:D75)</f>
         <v>0</v>
       </c>
-      <c r="E76" s="216"/>
-      <c r="F76" s="221" t="s">
+      <c r="E76" s="201"/>
+      <c r="F76" s="206" t="s">
         <v>97</v>
       </c>
       <c r="G76" s="45"/>
-      <c r="H76" s="220">
+      <c r="H76" s="205">
         <f>SUM(H74:H75)</f>
         <v>0</v>
       </c>
-      <c r="L76" s="213"/>
-      <c r="M76" s="213"/>
+      <c r="L76" s="198"/>
+      <c r="M76" s="198"/>
     </row>
     <row r="77">
-      <c r="A77" s="161"/>
+      <c r="A77" s="146"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
-      <c r="L77" s="213"/>
-      <c r="M77" s="213"/>
+      <c r="L77" s="198"/>
+      <c r="M77" s="198"/>
     </row>
     <row r="78">
-      <c r="A78" s="161"/>
+      <c r="A78" s="146"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
-      <c r="L78" s="213"/>
-      <c r="M78" s="213"/>
+      <c r="L78" s="198"/>
+      <c r="M78" s="198"/>
     </row>
     <row r="79">
-      <c r="A79" s="161"/>
+      <c r="A79" s="146"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
-      <c r="L79" s="213"/>
-      <c r="M79" s="213"/>
+      <c r="L79" s="198"/>
+      <c r="M79" s="198"/>
     </row>
     <row r="80">
-      <c r="A80" s="161" t="s">
+      <c r="A80" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="152" t="s">
+      <c r="B80" s="137" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="157"/>
-      <c r="L81" s="222"/>
+      <c r="B81" s="142"/>
+      <c r="L81" s="207"/>
     </row>
     <row r="82">
-      <c r="B82" s="157"/>
-      <c r="L82" s="222"/>
+      <c r="B82" s="142"/>
+      <c r="L82" s="207"/>
     </row>
     <row r="83">
-      <c r="B83" s="157" t="s">
+      <c r="B83" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="C83" s="223"/>
+      <c r="C83" s="208"/>
       <c r="D83" s="83"/>
     </row>
     <row r="85">
-      <c r="B85" s="157"/>
-      <c r="F85" s="157"/>
+      <c r="B85" s="142"/>
+      <c r="F85" s="142"/>
     </row>
     <row r="86">
-      <c r="B86" s="157" t="s">
+      <c r="B86" s="142" t="s">
         <v>100</v>
       </c>
-      <c r="C86" s="223"/>
+      <c r="C86" s="208"/>
       <c r="D86" s="83"/>
-      <c r="F86" s="157" t="s">
+      <c r="F86" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="G86" s="223"/>
+      <c r="G86" s="208"/>
       <c r="H86" s="83"/>
     </row>
   </sheetData>
@@ -13431,215 +13389,215 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="133" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="134" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="224" t="str">
+      <c r="A4" s="209" t="str">
         <f>'Sílabo'!G3</f>
         <v xml:space="preserve">Sede Jalapa</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="X5" s="225"/>
-      <c r="Y5" s="225"/>
-      <c r="Z5" s="225"/>
+      <c r="X5" s="210"/>
+      <c r="Y5" s="210"/>
+      <c r="Z5" s="210"/>
     </row>
     <row r="6">
-      <c r="A6" s="150">
+      <c r="A6" s="135">
         <v>1</v>
       </c>
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="153">
+      <c r="C6" s="138">
         <f>'Sílabo'!A23</f>
         <v>1</v>
       </c>
-      <c r="D6" s="153"/>
-      <c r="E6" s="154">
+      <c r="D6" s="138"/>
+      <c r="E6" s="139">
         <v>7</v>
       </c>
-      <c r="F6" s="150" t="s">
+      <c r="F6" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="155" t="str">
+      <c r="G6" s="140" t="str">
         <f>'Sílabo'!I5</f>
         <v>#REF!</v>
       </c>
-      <c r="X6" s="225"/>
-      <c r="Y6" s="225"/>
-      <c r="Z6" s="225"/>
+      <c r="X6" s="210"/>
+      <c r="Y6" s="210"/>
+      <c r="Z6" s="210"/>
     </row>
     <row r="7">
-      <c r="A7" s="150">
+      <c r="A7" s="135">
         <v>2</v>
       </c>
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="156">
+      <c r="C7" s="141">
         <f>'Sílabo'!B23</f>
         <v>45554</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="154">
+      <c r="D7" s="138"/>
+      <c r="E7" s="139">
         <v>8</v>
       </c>
-      <c r="F7" s="226" t="s">
+      <c r="F7" s="211" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="157" t="str">
+      <c r="G7" s="142" t="str">
         <f>'Sílabo'!J5</f>
         <v>T1805</v>
       </c>
-      <c r="X7" s="225"/>
-      <c r="Y7" s="225"/>
-      <c r="Z7" s="225"/>
+      <c r="X7" s="210"/>
+      <c r="Y7" s="210"/>
+      <c r="Z7" s="210"/>
     </row>
     <row r="8">
-      <c r="A8" s="150">
+      <c r="A8" s="135">
         <v>3</v>
       </c>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="153" t="str">
+      <c r="C8" s="138" t="str">
         <f>'Sílabo'!G3</f>
         <v xml:space="preserve">Sede Jalapa</v>
       </c>
-      <c r="D8" s="153"/>
-      <c r="E8" s="154">
+      <c r="D8" s="138"/>
+      <c r="E8" s="139">
         <v>9</v>
       </c>
-      <c r="F8" s="150" t="s">
+      <c r="F8" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="157" t="str">
+      <c r="G8" s="142" t="str">
         <f>'Sílabo'!M5</f>
         <v>#REF!</v>
       </c>
-      <c r="X8" s="225"/>
-      <c r="Y8" s="225"/>
-      <c r="Z8" s="225"/>
+      <c r="X8" s="210"/>
+      <c r="Y8" s="210"/>
+      <c r="Z8" s="210"/>
     </row>
     <row r="9">
-      <c r="A9" s="150">
+      <c r="A9" s="135">
         <v>4</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="227">
+      <c r="C9" s="212">
         <f>'Sílabo'!D5</f>
         <v>0</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154">
+      <c r="D9" s="138"/>
+      <c r="E9" s="139">
         <v>10</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="F9" s="135" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="153">
+      <c r="G9" s="138">
         <f>'Sílabo'!J3</f>
         <v>2024</v>
       </c>
-      <c r="X9" s="225"/>
-      <c r="Y9" s="225"/>
-      <c r="Z9" s="225"/>
+      <c r="X9" s="210"/>
+      <c r="Y9" s="210"/>
+      <c r="Z9" s="210"/>
     </row>
     <row r="10">
-      <c r="A10" s="150">
+      <c r="A10" s="135">
         <v>5</v>
       </c>
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="153" t="str">
+      <c r="C10" s="138" t="str">
         <f>'Sílabo'!L5</f>
         <v>#REF!</v>
       </c>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="X10" s="225"/>
-      <c r="Y10" s="225"/>
-      <c r="Z10" s="225"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="X10" s="210"/>
+      <c r="Y10" s="210"/>
+      <c r="Z10" s="210"/>
     </row>
     <row r="11">
-      <c r="A11" s="150">
+      <c r="A11" s="135">
         <v>6</v>
       </c>
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="153">
+      <c r="C11" s="138">
         <f>'Sílabo'!C7</f>
         <v>0</v>
       </c>
-      <c r="D11" s="158">
+      <c r="D11" s="143">
         <f>'Sílabo'!D7</f>
         <v>0</v>
       </c>
-      <c r="X11" s="225"/>
-      <c r="Y11" s="225"/>
-      <c r="Z11" s="225"/>
+      <c r="X11" s="210"/>
+      <c r="Y11" s="210"/>
+      <c r="Z11" s="210"/>
     </row>
     <row r="13">
-      <c r="A13" s="151" t="s">
+      <c r="A13" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="167"/>
-      <c r="C13" s="152" t="s">
+      <c r="B13" s="152"/>
+      <c r="C13" s="137" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="164">
+      <c r="B14" s="149">
         <f>'Sílabo'!C18</f>
         <v>0</v>
       </c>
-      <c r="C14" s="161">
+      <c r="C14" s="146">
         <f>'Sílabo'!D18</f>
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="153"/>
+      <c r="B15" s="138"/>
     </row>
     <row r="16">
-      <c r="A16" s="167" t="s">
+      <c r="A16" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="228"/>
-      <c r="C16" s="152" t="s">
+      <c r="B16" s="213"/>
+      <c r="C16" s="137" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="184" t="s">
+      <c r="A18" s="169" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="45"/>
-      <c r="C18" s="229" t="s">
+      <c r="C18" s="214" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="229" t="s">
+      <c r="D18" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="184" t="s">
+      <c r="E18" s="169" t="s">
         <v>92</v>
       </c>
       <c r="F18" s="53"/>
@@ -13647,112 +13605,112 @@
       <c r="H18" s="45"/>
     </row>
     <row r="19">
-      <c r="A19" s="230"/>
+      <c r="A19" s="215"/>
     </row>
     <row r="20">
-      <c r="A20" s="195">
+      <c r="A20" s="180">
         <f>'Sílabo'!C23</f>
         <v>0</v>
       </c>
-      <c r="B20" s="201">
+      <c r="B20" s="186">
         <f>'Sílabo'!D23</f>
         <v>0</v>
       </c>
-      <c r="C20" s="197" t="str">
+      <c r="C20" s="182" t="str">
         <f>'Sílabo'!E23</f>
         <v>Procedimental</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="183">
         <f>'Sílabo'!F23</f>
         <v>0</v>
       </c>
-      <c r="E20" s="174" t="s">
+      <c r="E20" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="174" t="s">
+      <c r="F20" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="174" t="s">
+      <c r="G20" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="174" t="s">
+      <c r="H20" s="159" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="179"/>
-      <c r="B21" s="199"/>
+      <c r="A21" s="164"/>
+      <c r="B21" s="184"/>
       <c r="C21" s="16"/>
       <c r="D21" s="67"/>
-      <c r="E21" s="198">
+      <c r="E21" s="183">
         <f>'Sílabo'!G23</f>
         <v>0</v>
       </c>
-      <c r="F21" s="198">
+      <c r="F21" s="183">
         <f>'Sílabo'!I23</f>
         <v>0</v>
       </c>
-      <c r="G21" s="175" t="str">
+      <c r="G21" s="160" t="str">
         <f>'Sílabo'!M23</f>
         <v xml:space="preserve">I Parcial</v>
       </c>
-      <c r="H21" s="200">
+      <c r="H21" s="185">
         <f>'Sílabo'!J23</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="117.75" customHeight="1">
-      <c r="A22" s="179"/>
-      <c r="B22" s="199"/>
-      <c r="C22" s="201">
+      <c r="A22" s="164"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="186">
         <f>'Sílabo'!E24</f>
         <v>0</v>
       </c>
       <c r="D22" s="67"/>
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
-      <c r="G22" s="202">
+      <c r="G22" s="187">
         <f>Sílabo!M24</f>
         <v>0</v>
       </c>
       <c r="H22" s="48"/>
     </row>
     <row r="23">
-      <c r="A23" s="179"/>
-      <c r="B23" s="199"/>
-      <c r="C23" s="199"/>
+      <c r="A23" s="164"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="184"/>
       <c r="D23" s="67"/>
-      <c r="E23" s="203" t="s">
+      <c r="E23" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="174" t="s">
+      <c r="F23" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="174" t="s">
+      <c r="G23" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="174" t="s">
+      <c r="H23" s="159" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="179"/>
-      <c r="B24" s="199"/>
-      <c r="C24" s="199"/>
+      <c r="A24" s="164"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="184"/>
       <c r="D24" s="67"/>
-      <c r="E24" s="231" t="str">
+      <c r="E24" s="216" t="str">
         <f>'Sílabo'!H23</f>
         <v xml:space="preserve">Lista de cotejo</v>
       </c>
-      <c r="F24" s="198">
+      <c r="F24" s="183">
         <f>'Sílabo'!K23</f>
         <v>0</v>
       </c>
-      <c r="G24" s="206">
+      <c r="G24" s="191">
         <f>'Sílabo'!L23</f>
         <v>0</v>
       </c>
-      <c r="H24" s="210" t="str">
+      <c r="H24" s="195" t="str">
         <f>'Sílabo'!N23</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -13762,7 +13720,7 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="48"/>
-      <c r="E25" s="232">
+      <c r="E25" s="217">
         <f>Sílabo!H24</f>
         <v>0</v>
       </c>
@@ -13771,112 +13729,112 @@
       <c r="H25" s="48"/>
     </row>
     <row r="26">
-      <c r="A26" s="209"/>
+      <c r="A26" s="194"/>
     </row>
     <row r="27">
-      <c r="A27" s="195">
+      <c r="A27" s="180">
         <f>'Sílabo'!C25</f>
         <v>0</v>
       </c>
-      <c r="B27" s="201">
+      <c r="B27" s="186">
         <f>'Sílabo'!D25</f>
         <v>0</v>
       </c>
-      <c r="C27" s="197" t="str">
+      <c r="C27" s="182" t="str">
         <f>'Sílabo'!E25</f>
         <v>Conceptual</v>
       </c>
-      <c r="D27" s="198">
+      <c r="D27" s="183">
         <f>'Sílabo'!F25</f>
         <v>0</v>
       </c>
-      <c r="E27" s="174" t="s">
+      <c r="E27" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="174" t="s">
+      <c r="F27" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="174" t="s">
+      <c r="G27" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="174" t="s">
+      <c r="H27" s="159" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="179"/>
-      <c r="B28" s="199"/>
+      <c r="A28" s="164"/>
+      <c r="B28" s="184"/>
       <c r="C28" s="16"/>
       <c r="D28" s="67"/>
-      <c r="E28" s="198">
+      <c r="E28" s="183">
         <f>'Sílabo'!G25</f>
         <v>0</v>
       </c>
-      <c r="F28" s="198">
+      <c r="F28" s="183">
         <f>'Sílabo'!I25</f>
         <v>0</v>
       </c>
-      <c r="G28" s="175" t="str">
+      <c r="G28" s="160" t="str">
         <f>'Sílabo'!M25</f>
         <v xml:space="preserve">I Parcial</v>
       </c>
-      <c r="H28" s="200">
+      <c r="H28" s="185">
         <f>'Sílabo'!J25</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" ht="159" customHeight="1">
-      <c r="A29" s="179"/>
-      <c r="B29" s="199"/>
-      <c r="C29" s="201">
+      <c r="A29" s="164"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="186">
         <f>'Sílabo'!E26</f>
         <v>0</v>
       </c>
       <c r="D29" s="67"/>
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
-      <c r="G29" s="202">
+      <c r="G29" s="187">
         <f>Sílabo!M26</f>
         <v>0</v>
       </c>
       <c r="H29" s="48"/>
     </row>
     <row r="30">
-      <c r="A30" s="179"/>
-      <c r="B30" s="199"/>
-      <c r="C30" s="199"/>
+      <c r="A30" s="164"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
       <c r="D30" s="67"/>
-      <c r="E30" s="203" t="s">
+      <c r="E30" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="174" t="s">
+      <c r="F30" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="174" t="s">
+      <c r="G30" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="174" t="s">
+      <c r="H30" s="159" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="179"/>
-      <c r="B31" s="199"/>
-      <c r="C31" s="199"/>
+      <c r="A31" s="164"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="184"/>
       <c r="D31" s="67"/>
-      <c r="E31" s="231" t="str">
+      <c r="E31" s="216" t="str">
         <f>'Sílabo'!H25</f>
         <v xml:space="preserve">Organizador gráfico</v>
       </c>
-      <c r="F31" s="198">
+      <c r="F31" s="183">
         <f>'Sílabo'!K25</f>
         <v>0</v>
       </c>
-      <c r="G31" s="206">
+      <c r="G31" s="191">
         <f>'Sílabo'!L25</f>
         <v>0</v>
       </c>
-      <c r="H31" s="210">
+      <c r="H31" s="195">
         <f>'Sílabo'!N25</f>
         <v>0</v>
       </c>
@@ -13886,7 +13844,7 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="48"/>
-      <c r="E32" s="232">
+      <c r="E32" s="217">
         <f>Sílabo!H26</f>
         <v>0</v>
       </c>
@@ -13895,112 +13853,112 @@
       <c r="H32" s="48"/>
     </row>
     <row r="33">
-      <c r="A33" s="209"/>
+      <c r="A33" s="194"/>
     </row>
     <row r="34">
-      <c r="A34" s="195">
+      <c r="A34" s="180">
         <f>'Sílabo'!C27</f>
         <v>0</v>
       </c>
-      <c r="B34" s="201">
+      <c r="B34" s="186">
         <f>'Sílabo'!D27</f>
         <v>0</v>
       </c>
-      <c r="C34" s="197" t="str">
+      <c r="C34" s="182" t="str">
         <f>'Sílabo'!E27</f>
         <v>Actitudinal</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="183">
         <f>'Sílabo'!F27</f>
         <v>0</v>
       </c>
-      <c r="E34" s="174" t="s">
+      <c r="E34" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="174" t="s">
+      <c r="F34" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="174" t="s">
+      <c r="G34" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="174" t="s">
+      <c r="H34" s="159" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="179"/>
-      <c r="B35" s="199"/>
+      <c r="A35" s="164"/>
+      <c r="B35" s="184"/>
       <c r="C35" s="16"/>
       <c r="D35" s="67"/>
-      <c r="E35" s="198">
+      <c r="E35" s="183">
         <f>'Sílabo'!G27</f>
         <v>0</v>
       </c>
-      <c r="F35" s="198">
+      <c r="F35" s="183">
         <f>'Sílabo'!I27</f>
         <v>0</v>
       </c>
-      <c r="G35" s="175" t="str">
+      <c r="G35" s="160" t="str">
         <f>'Sílabo'!M27</f>
         <v xml:space="preserve">I Parcial</v>
       </c>
-      <c r="H35" s="200">
+      <c r="H35" s="185">
         <f>'Sílabo'!J27</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" ht="123" customHeight="1">
-      <c r="A36" s="179"/>
-      <c r="B36" s="199"/>
-      <c r="C36" s="201">
+      <c r="A36" s="164"/>
+      <c r="B36" s="184"/>
+      <c r="C36" s="186">
         <f>'Sílabo'!E28</f>
         <v>0</v>
       </c>
       <c r="D36" s="67"/>
       <c r="E36" s="48"/>
       <c r="F36" s="48"/>
-      <c r="G36" s="202">
+      <c r="G36" s="187">
         <f>Sílabo!M28</f>
         <v>0</v>
       </c>
       <c r="H36" s="48"/>
     </row>
     <row r="37">
-      <c r="A37" s="179"/>
-      <c r="B37" s="199"/>
-      <c r="C37" s="199"/>
+      <c r="A37" s="164"/>
+      <c r="B37" s="184"/>
+      <c r="C37" s="184"/>
       <c r="D37" s="67"/>
-      <c r="E37" s="203" t="s">
+      <c r="E37" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="174" t="s">
+      <c r="F37" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="174" t="s">
+      <c r="G37" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="174" t="s">
+      <c r="H37" s="159" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="179"/>
-      <c r="B38" s="199"/>
-      <c r="C38" s="199"/>
+      <c r="A38" s="164"/>
+      <c r="B38" s="184"/>
+      <c r="C38" s="184"/>
       <c r="D38" s="67"/>
-      <c r="E38" s="231" t="str">
+      <c r="E38" s="216" t="str">
         <f>'Sílabo'!H27</f>
         <v xml:space="preserve">Diario de trabajo</v>
       </c>
-      <c r="F38" s="198">
+      <c r="F38" s="183">
         <f>'Sílabo'!K27</f>
         <v>0</v>
       </c>
-      <c r="G38" s="206">
+      <c r="G38" s="191">
         <f>'Sílabo'!L27</f>
         <v>0</v>
       </c>
-      <c r="H38" s="210">
+      <c r="H38" s="195">
         <f>'Sílabo'!N27</f>
         <v>0</v>
       </c>
@@ -14010,7 +13968,7 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="48"/>
-      <c r="E39" s="232">
+      <c r="E39" s="217">
         <f>Sílabo!H28</f>
         <v>0</v>
       </c>
@@ -14019,112 +13977,112 @@
       <c r="H39" s="48"/>
     </row>
     <row r="40">
-      <c r="A40" s="209"/>
+      <c r="A40" s="194"/>
     </row>
     <row r="41">
-      <c r="A41" s="195">
+      <c r="A41" s="180">
         <f>'Sílabo'!C29</f>
         <v>0</v>
       </c>
-      <c r="B41" s="201">
+      <c r="B41" s="186">
         <f>'Sílabo'!D29</f>
         <v>0</v>
       </c>
-      <c r="C41" s="197" t="str">
+      <c r="C41" s="182" t="str">
         <f>'Sílabo'!E29</f>
         <v>Conceptual</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="183">
         <f>'Sílabo'!F29</f>
         <v>0</v>
       </c>
-      <c r="E41" s="174" t="s">
+      <c r="E41" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="174" t="s">
+      <c r="F41" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="G41" s="174" t="s">
+      <c r="G41" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="H41" s="174" t="s">
+      <c r="H41" s="159" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="179"/>
-      <c r="B42" s="199"/>
+      <c r="A42" s="164"/>
+      <c r="B42" s="184"/>
       <c r="C42" s="16"/>
       <c r="D42" s="67"/>
-      <c r="E42" s="198">
+      <c r="E42" s="183">
         <f>'Sílabo'!G29</f>
         <v>0</v>
       </c>
-      <c r="F42" s="198">
+      <c r="F42" s="183">
         <f>'Sílabo'!I29</f>
         <v>0</v>
       </c>
-      <c r="G42" s="175" t="str">
+      <c r="G42" s="160" t="str">
         <f>'Sílabo'!M29</f>
         <v xml:space="preserve">I Parcial</v>
       </c>
-      <c r="H42" s="200">
+      <c r="H42" s="185">
         <f>'Sílabo'!J29</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" ht="90" customHeight="1">
-      <c r="A43" s="179"/>
-      <c r="B43" s="199"/>
-      <c r="C43" s="201">
+      <c r="A43" s="164"/>
+      <c r="B43" s="184"/>
+      <c r="C43" s="186">
         <f>'Sílabo'!E30</f>
         <v>0</v>
       </c>
       <c r="D43" s="67"/>
       <c r="E43" s="48"/>
       <c r="F43" s="48"/>
-      <c r="G43" s="202">
+      <c r="G43" s="187">
         <f>Sílabo!M30</f>
         <v>0</v>
       </c>
       <c r="H43" s="48"/>
     </row>
     <row r="44">
-      <c r="A44" s="179"/>
-      <c r="B44" s="199"/>
-      <c r="C44" s="199"/>
+      <c r="A44" s="164"/>
+      <c r="B44" s="184"/>
+      <c r="C44" s="184"/>
       <c r="D44" s="67"/>
-      <c r="E44" s="203" t="s">
+      <c r="E44" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="174" t="s">
+      <c r="F44" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="174" t="s">
+      <c r="G44" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="174" t="s">
+      <c r="H44" s="159" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="179"/>
-      <c r="B45" s="199"/>
-      <c r="C45" s="199"/>
+      <c r="A45" s="164"/>
+      <c r="B45" s="184"/>
+      <c r="C45" s="184"/>
       <c r="D45" s="67"/>
-      <c r="E45" s="231" t="str">
+      <c r="E45" s="216" t="str">
         <f>'Sílabo'!H29</f>
         <v xml:space="preserve">Prueba escrita</v>
       </c>
-      <c r="F45" s="198">
+      <c r="F45" s="183">
         <f>'Sílabo'!K29</f>
         <v>0</v>
       </c>
-      <c r="G45" s="206">
+      <c r="G45" s="191">
         <f>'Sílabo'!L29</f>
         <v>0</v>
       </c>
-      <c r="H45" s="210">
+      <c r="H45" s="195">
         <f>'Sílabo'!N29</f>
         <v>0</v>
       </c>
@@ -14134,7 +14092,7 @@
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="48"/>
-      <c r="E46" s="232">
+      <c r="E46" s="217">
         <f>Sílabo!H30</f>
         <v>0</v>
       </c>
@@ -14143,37 +14101,37 @@
       <c r="H46" s="48"/>
     </row>
     <row r="47">
-      <c r="A47" s="161"/>
+      <c r="A47" s="146"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="213"/>
-      <c r="J47" s="213"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="198"/>
     </row>
     <row r="48">
-      <c r="A48" s="161"/>
-      <c r="B48" s="233" t="s">
+      <c r="A48" s="146"/>
+      <c r="B48" s="218" t="s">
         <v>94</v>
       </c>
       <c r="C48" s="45"/>
-      <c r="D48" s="220">
+      <c r="D48" s="205">
         <f>(H21+H28+H35+H42)/60</f>
         <v>0</v>
       </c>
-      <c r="E48" s="216"/>
-      <c r="F48" s="234" t="s">
+      <c r="E48" s="201"/>
+      <c r="F48" s="219" t="s">
         <v>95</v>
       </c>
       <c r="G48" s="45"/>
-      <c r="H48" s="220">
+      <c r="H48" s="205">
         <f>(G24+G31+G38+G45)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="213"/>
-      <c r="J48" s="213"/>
+      <c r="I48" s="198"/>
+      <c r="J48" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="61">
